--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.99484931580258</v>
+        <v>25.99484931580256</v>
       </c>
       <c r="C2">
-        <v>17.47984217213986</v>
+        <v>17.47984217213988</v>
       </c>
       <c r="D2">
-        <v>3.795912590095933</v>
+        <v>3.795912590095951</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.04243282891888</v>
+        <v>39.04243282891889</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>24.78612806855435</v>
+        <v>24.78612806855436</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.36787535376007</v>
+        <v>30.3678753537601</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.1191851942401</v>
+        <v>24.11918519424015</v>
       </c>
       <c r="C3">
-        <v>16.24100296092287</v>
+        <v>16.24100296092291</v>
       </c>
       <c r="D3">
-        <v>3.80271987339298</v>
+        <v>3.802719873393051</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.65432624265491</v>
+        <v>36.65432624265495</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23.61504206080919</v>
+        <v>23.61504206080922</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.01448547835982</v>
+        <v>28.01448547835988</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.91415839540101</v>
+        <v>22.91415839540102</v>
       </c>
       <c r="C4">
-        <v>15.44466682538849</v>
+        <v>15.4446668253885</v>
       </c>
       <c r="D4">
-        <v>3.812656151543672</v>
+        <v>3.812656151543666</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.17195017562324</v>
+        <v>35.17195017562319</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.90782128298299</v>
+        <v>22.90782128298296</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.52036366503462</v>
+        <v>26.52036366503463</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.40927577931673</v>
+        <v>22.40927577931668</v>
       </c>
       <c r="C5">
-        <v>15.11094588084457</v>
+        <v>15.11094588084445</v>
       </c>
       <c r="D5">
-        <v>3.817986940449626</v>
+        <v>3.81798694044973</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.56391679305138</v>
+        <v>34.56391679305133</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.89824125110515</v>
+        <v>25.89824125110513</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.32459434778911</v>
+        <v>22.32459434778918</v>
       </c>
       <c r="C6">
-        <v>15.05496925555967</v>
+        <v>15.0549692555595</v>
       </c>
       <c r="D6">
-        <v>3.818945026990335</v>
+        <v>3.818945026990318</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.46272099074375</v>
+        <v>34.46272099074371</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22.57536470318429</v>
+        <v>22.57536470318426</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.79411351508043</v>
+        <v>25.79411351508035</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.90740585376087</v>
+        <v>22.90740585376082</v>
       </c>
       <c r="C7">
-        <v>15.44020372185746</v>
+        <v>15.44020372185737</v>
       </c>
       <c r="D7">
-        <v>3.812723060637094</v>
+        <v>3.812723060637213</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.16376576819685</v>
+        <v>35.16376576819693</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22.90396221805181</v>
+        <v>22.90396221805193</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.51202828390128</v>
+        <v>26.51202828390113</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.35893696160532</v>
+        <v>25.35893696160523</v>
       </c>
       <c r="C8">
-        <v>17.05994748991492</v>
+        <v>17.05994748991469</v>
       </c>
       <c r="D8">
-        <v>3.79695908553149</v>
+        <v>3.796959085531583</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.22233665753802</v>
+        <v>38.22233665753791</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24.37983085610752</v>
+        <v>24.37983085610748</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.56604197115191</v>
+        <v>29.56604197115189</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.76401372887113</v>
+        <v>29.76401372887115</v>
       </c>
       <c r="C9">
-        <v>19.96520043470344</v>
+        <v>19.96520043470353</v>
       </c>
       <c r="D9">
-        <v>3.820301301478071</v>
+        <v>3.820301301478055</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.1006283104685</v>
+        <v>44.10062831046859</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.37501125636171</v>
+        <v>27.37501125636175</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.21350539450447</v>
+        <v>35.21350539450444</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.78993567671584</v>
+        <v>32.78993567671599</v>
       </c>
       <c r="C10">
-        <v>21.95415207012483</v>
+        <v>21.95415207012478</v>
       </c>
       <c r="D10">
-        <v>3.884467891225077</v>
+        <v>3.884467891225034</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.61527744171081</v>
+        <v>48.61527744171104</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.65720828531745</v>
+        <v>29.65720828531758</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.23827467192028</v>
+        <v>39.23827467192024</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.1307024000762</v>
+        <v>34.1307024000763</v>
       </c>
       <c r="C11">
-        <v>22.83283594284456</v>
+        <v>22.8328359428446</v>
       </c>
       <c r="D11">
-        <v>3.927683764549054</v>
+        <v>3.927683764549101</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.68339805185494</v>
+        <v>50.68339805185529</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.81058825582673</v>
+        <v>30.81058825582694</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>41.0675274295126</v>
+        <v>41.06752742951272</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.63433630596311</v>
+        <v>34.6343363059631</v>
       </c>
       <c r="C12">
-        <v>23.16238528530338</v>
+        <v>23.16238528530343</v>
       </c>
       <c r="D12">
-        <v>3.94645725787798</v>
+        <v>3.946457257877957</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.46684403482404</v>
+        <v>51.46684403482386</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.29338625158392</v>
+        <v>31.29338625158376</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.7628344718794</v>
+        <v>41.76283447187926</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.52603188440494</v>
+        <v>34.52603188440492</v>
       </c>
       <c r="C13">
-        <v>23.09154249578883</v>
+        <v>23.0915424957887</v>
       </c>
       <c r="D13">
-        <v>3.942299864372018</v>
+        <v>3.942299864372025</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.29806743483415</v>
+        <v>51.29806743483402</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.18930873079096</v>
+        <v>31.18930873079086</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.61291749462744</v>
+        <v>41.61291749462755</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.17221159556736</v>
+        <v>34.17221159556746</v>
       </c>
       <c r="C14">
-        <v>22.86000842249235</v>
+        <v>22.8600084224926</v>
       </c>
       <c r="D14">
-        <v>3.92917748388094</v>
+        <v>3.929177483880915</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.74783453197712</v>
+        <v>50.74783453197755</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.85026628977151</v>
+        <v>30.85026628977178</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>41.1246592780249</v>
+        <v>41.12465927802504</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.95498999144987</v>
+        <v>33.9549899914498</v>
       </c>
       <c r="C15">
-        <v>22.71779055820055</v>
+        <v>22.71779055820056</v>
       </c>
       <c r="D15">
         <v>3.921466227348533</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.41090161644271</v>
+        <v>50.41090161644277</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.6428546437046</v>
+        <v>30.64285464370463</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.82602487515799</v>
+        <v>40.82602487515793</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.70167886406123</v>
+        <v>32.70167886406122</v>
       </c>
       <c r="C16">
-        <v>21.89624842670618</v>
+        <v>21.89624842670627</v>
       </c>
       <c r="D16">
-        <v>3.881957701326523</v>
+        <v>3.881957701326507</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.58826784452774</v>
+        <v>29.5882678445277</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.11892147329357</v>
+        <v>39.11892147329353</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.9243360047703</v>
+        <v>31.92433600477013</v>
       </c>
       <c r="C17">
-        <v>21.38594053959711</v>
+        <v>21.38594053959701</v>
       </c>
       <c r="D17">
-        <v>3.861569440448163</v>
+        <v>3.861569440448111</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.29398582050285</v>
+        <v>47.29398582050253</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.98708350801733</v>
+        <v>28.98708350801725</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>38.07304143371826</v>
+        <v>38.0730414337181</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.47378971536168</v>
+        <v>31.47378971536157</v>
       </c>
       <c r="C18">
-        <v>21.08992864559068</v>
+        <v>21.08992864559059</v>
       </c>
       <c r="D18">
-        <v>3.851135680521001</v>
+        <v>3.851135680521017</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.61067565580812</v>
+        <v>46.610675655808</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.64365946289197</v>
+        <v>28.64365946289193</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.4711169989577</v>
+        <v>37.47111699895764</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.32062348585773</v>
+        <v>31.32062348585781</v>
       </c>
       <c r="C19">
-        <v>20.98925999265676</v>
+        <v>20.98925999265678</v>
       </c>
       <c r="D19">
-        <v>3.847814287833923</v>
+        <v>3.847814287833913</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.37908051423173</v>
+        <v>46.37908051423182</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.52776170721365</v>
+        <v>28.52776170721367</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.26717902694974</v>
+        <v>37.26717902694985</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.00743455732758</v>
+        <v>32.00743455732761</v>
       </c>
       <c r="C20">
-        <v>21.44051832008867</v>
+        <v>21.44051832008859</v>
       </c>
       <c r="D20">
-        <v>3.863603376068729</v>
+        <v>3.863603376068697</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.4203488031844</v>
+        <v>47.42034880318444</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.05082987840282</v>
+        <v>29.05082987840286</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>34.27623839970287</v>
       </c>
       <c r="C21">
-        <v>22.92809705337165</v>
+        <v>22.92809705337173</v>
       </c>
       <c r="D21">
-        <v>3.932962975857636</v>
+        <v>3.932962975857637</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.90942631306113</v>
+        <v>50.90942631306125</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.9497940188767</v>
+        <v>30.94979401887677</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.26797503161354</v>
+        <v>41.26797503161346</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.73591144604666</v>
+        <v>35.73591144604664</v>
       </c>
       <c r="C22">
-        <v>23.88208279824575</v>
+        <v>23.88208279824566</v>
       </c>
       <c r="D22">
         <v>3.992574354996317</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.19270839299398</v>
+        <v>53.19270839299389</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.35981797142157</v>
+        <v>32.35981797142151</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>43.30045059195428</v>
+        <v>43.3004505919543</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.95855272475221</v>
+        <v>34.95855272475213</v>
       </c>
       <c r="C23">
-        <v>23.37437134209936</v>
+        <v>23.37437134209932</v>
       </c>
       <c r="D23">
-        <v>3.959301328278823</v>
+        <v>3.959301328278825</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.97306346124896</v>
+        <v>51.97306346124895</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31.60577740693054</v>
+        <v>31.60577740693056</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>42.2129394129723</v>
+        <v>42.21293941297228</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.96987712029433</v>
+        <v>31.96987712029418</v>
       </c>
       <c r="C24">
-        <v>21.41585193551385</v>
+        <v>21.41585193551383</v>
       </c>
       <c r="D24">
-        <v>3.862679851349396</v>
+        <v>3.862679851349506</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.36322466394085</v>
+        <v>47.36322466394066</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.02200334921855</v>
+        <v>29.02200334921846</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.13405502138119</v>
+        <v>38.13405502138109</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.6121603296332</v>
+        <v>28.61216032963314</v>
       </c>
       <c r="C25">
         <v>19.20642000234263</v>
       </c>
       <c r="D25">
-        <v>3.806865527506022</v>
+        <v>3.806865527506055</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.5210984168874</v>
+        <v>42.52109841688723</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.55242898636352</v>
+        <v>26.55242898636347</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.71467137306443</v>
+        <v>33.71467137306431</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.99484931580256</v>
+        <v>25.99484931580258</v>
       </c>
       <c r="C2">
-        <v>17.47984217213988</v>
+        <v>17.47984217213986</v>
       </c>
       <c r="D2">
-        <v>3.795912590095951</v>
+        <v>3.795912590095933</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.04243282891889</v>
+        <v>39.04243282891888</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>24.78612806855436</v>
+        <v>24.78612806855435</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.3678753537601</v>
+        <v>30.36787535376007</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.11918519424015</v>
+        <v>24.1191851942401</v>
       </c>
       <c r="C3">
-        <v>16.24100296092291</v>
+        <v>16.24100296092287</v>
       </c>
       <c r="D3">
-        <v>3.802719873393051</v>
+        <v>3.80271987339298</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.65432624265495</v>
+        <v>36.65432624265491</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23.61504206080922</v>
+        <v>23.61504206080919</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.01448547835988</v>
+        <v>28.01448547835982</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.91415839540102</v>
+        <v>22.91415839540101</v>
       </c>
       <c r="C4">
-        <v>15.4446668253885</v>
+        <v>15.44466682538849</v>
       </c>
       <c r="D4">
-        <v>3.812656151543666</v>
+        <v>3.812656151543672</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.17195017562319</v>
+        <v>35.17195017562324</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.90782128298296</v>
+        <v>22.90782128298299</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.52036366503463</v>
+        <v>26.52036366503462</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.40927577931668</v>
+        <v>22.40927577931673</v>
       </c>
       <c r="C5">
-        <v>15.11094588084445</v>
+        <v>15.11094588084457</v>
       </c>
       <c r="D5">
-        <v>3.81798694044973</v>
+        <v>3.817986940449626</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.56391679305133</v>
+        <v>34.56391679305138</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.89824125110513</v>
+        <v>25.89824125110515</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.32459434778918</v>
+        <v>22.32459434778911</v>
       </c>
       <c r="C6">
-        <v>15.0549692555595</v>
+        <v>15.05496925555967</v>
       </c>
       <c r="D6">
-        <v>3.818945026990318</v>
+        <v>3.818945026990335</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.46272099074371</v>
+        <v>34.46272099074375</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22.57536470318426</v>
+        <v>22.57536470318429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.79411351508035</v>
+        <v>25.79411351508043</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.90740585376082</v>
+        <v>22.90740585376087</v>
       </c>
       <c r="C7">
-        <v>15.44020372185737</v>
+        <v>15.44020372185746</v>
       </c>
       <c r="D7">
-        <v>3.812723060637213</v>
+        <v>3.812723060637094</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.16376576819693</v>
+        <v>35.16376576819685</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22.90396221805193</v>
+        <v>22.90396221805181</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.51202828390113</v>
+        <v>26.51202828390128</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.35893696160523</v>
+        <v>25.35893696160532</v>
       </c>
       <c r="C8">
-        <v>17.05994748991469</v>
+        <v>17.05994748991492</v>
       </c>
       <c r="D8">
-        <v>3.796959085531583</v>
+        <v>3.79695908553149</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.22233665753791</v>
+        <v>38.22233665753802</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24.37983085610748</v>
+        <v>24.37983085610752</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.56604197115189</v>
+        <v>29.56604197115191</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.76401372887115</v>
+        <v>29.76401372887113</v>
       </c>
       <c r="C9">
-        <v>19.96520043470353</v>
+        <v>19.96520043470344</v>
       </c>
       <c r="D9">
-        <v>3.820301301478055</v>
+        <v>3.820301301478071</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.10062831046859</v>
+        <v>44.1006283104685</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.37501125636175</v>
+        <v>27.37501125636171</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.21350539450444</v>
+        <v>35.21350539450447</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.78993567671599</v>
+        <v>32.78993567671584</v>
       </c>
       <c r="C10">
-        <v>21.95415207012478</v>
+        <v>21.95415207012483</v>
       </c>
       <c r="D10">
-        <v>3.884467891225034</v>
+        <v>3.884467891225077</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.61527744171104</v>
+        <v>48.61527744171081</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.65720828531758</v>
+        <v>29.65720828531745</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.23827467192024</v>
+        <v>39.23827467192028</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.1307024000763</v>
+        <v>34.1307024000762</v>
       </c>
       <c r="C11">
-        <v>22.8328359428446</v>
+        <v>22.83283594284456</v>
       </c>
       <c r="D11">
-        <v>3.927683764549101</v>
+        <v>3.927683764549054</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.68339805185529</v>
+        <v>50.68339805185494</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.81058825582694</v>
+        <v>30.81058825582673</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>41.06752742951272</v>
+        <v>41.0675274295126</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.6343363059631</v>
+        <v>34.63433630596311</v>
       </c>
       <c r="C12">
-        <v>23.16238528530343</v>
+        <v>23.16238528530338</v>
       </c>
       <c r="D12">
-        <v>3.946457257877957</v>
+        <v>3.94645725787798</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.46684403482386</v>
+        <v>51.46684403482404</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.29338625158376</v>
+        <v>31.29338625158392</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.76283447187926</v>
+        <v>41.7628344718794</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.52603188440492</v>
+        <v>34.52603188440494</v>
       </c>
       <c r="C13">
-        <v>23.0915424957887</v>
+        <v>23.09154249578883</v>
       </c>
       <c r="D13">
-        <v>3.942299864372025</v>
+        <v>3.942299864372018</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.29806743483402</v>
+        <v>51.29806743483415</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.18930873079086</v>
+        <v>31.18930873079096</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.61291749462755</v>
+        <v>41.61291749462744</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.17221159556746</v>
+        <v>34.17221159556736</v>
       </c>
       <c r="C14">
-        <v>22.8600084224926</v>
+        <v>22.86000842249235</v>
       </c>
       <c r="D14">
-        <v>3.929177483880915</v>
+        <v>3.92917748388094</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.74783453197755</v>
+        <v>50.74783453197712</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.85026628977178</v>
+        <v>30.85026628977151</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>41.12465927802504</v>
+        <v>41.1246592780249</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.9549899914498</v>
+        <v>33.95498999144987</v>
       </c>
       <c r="C15">
-        <v>22.71779055820056</v>
+        <v>22.71779055820055</v>
       </c>
       <c r="D15">
         <v>3.921466227348533</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.41090161644277</v>
+        <v>50.41090161644271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.64285464370463</v>
+        <v>30.6428546437046</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.82602487515793</v>
+        <v>40.82602487515799</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.70167886406122</v>
+        <v>32.70167886406123</v>
       </c>
       <c r="C16">
-        <v>21.89624842670627</v>
+        <v>21.89624842670618</v>
       </c>
       <c r="D16">
-        <v>3.881957701326507</v>
+        <v>3.881957701326523</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.5882678445277</v>
+        <v>29.58826784452774</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.11892147329353</v>
+        <v>39.11892147329357</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.92433600477013</v>
+        <v>31.9243360047703</v>
       </c>
       <c r="C17">
-        <v>21.38594053959701</v>
+        <v>21.38594053959711</v>
       </c>
       <c r="D17">
-        <v>3.861569440448111</v>
+        <v>3.861569440448163</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.29398582050253</v>
+        <v>47.29398582050285</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.98708350801725</v>
+        <v>28.98708350801733</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>38.0730414337181</v>
+        <v>38.07304143371826</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.47378971536157</v>
+        <v>31.47378971536168</v>
       </c>
       <c r="C18">
-        <v>21.08992864559059</v>
+        <v>21.08992864559068</v>
       </c>
       <c r="D18">
-        <v>3.851135680521017</v>
+        <v>3.851135680521001</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.610675655808</v>
+        <v>46.61067565580812</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.64365946289193</v>
+        <v>28.64365946289197</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.47111699895764</v>
+        <v>37.4711169989577</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.32062348585781</v>
+        <v>31.32062348585773</v>
       </c>
       <c r="C19">
-        <v>20.98925999265678</v>
+        <v>20.98925999265676</v>
       </c>
       <c r="D19">
-        <v>3.847814287833913</v>
+        <v>3.847814287833923</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.37908051423182</v>
+        <v>46.37908051423173</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.52776170721367</v>
+        <v>28.52776170721365</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.26717902694985</v>
+        <v>37.26717902694974</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.00743455732761</v>
+        <v>32.00743455732758</v>
       </c>
       <c r="C20">
-        <v>21.44051832008859</v>
+        <v>21.44051832008867</v>
       </c>
       <c r="D20">
-        <v>3.863603376068697</v>
+        <v>3.863603376068729</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.42034880318444</v>
+        <v>47.4203488031844</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.05082987840286</v>
+        <v>29.05082987840282</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>34.27623839970287</v>
       </c>
       <c r="C21">
-        <v>22.92809705337173</v>
+        <v>22.92809705337165</v>
       </c>
       <c r="D21">
-        <v>3.932962975857637</v>
+        <v>3.932962975857636</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.90942631306125</v>
+        <v>50.90942631306113</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.94979401887677</v>
+        <v>30.9497940188767</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.26797503161346</v>
+        <v>41.26797503161354</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.73591144604664</v>
+        <v>35.73591144604666</v>
       </c>
       <c r="C22">
-        <v>23.88208279824566</v>
+        <v>23.88208279824575</v>
       </c>
       <c r="D22">
         <v>3.992574354996317</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.19270839299389</v>
+        <v>53.19270839299398</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.35981797142151</v>
+        <v>32.35981797142157</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>43.3004505919543</v>
+        <v>43.30045059195428</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.95855272475213</v>
+        <v>34.95855272475221</v>
       </c>
       <c r="C23">
-        <v>23.37437134209932</v>
+        <v>23.37437134209936</v>
       </c>
       <c r="D23">
-        <v>3.959301328278825</v>
+        <v>3.959301328278823</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.97306346124895</v>
+        <v>51.97306346124896</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31.60577740693056</v>
+        <v>31.60577740693054</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>42.21293941297228</v>
+        <v>42.2129394129723</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.96987712029418</v>
+        <v>31.96987712029433</v>
       </c>
       <c r="C24">
-        <v>21.41585193551383</v>
+        <v>21.41585193551385</v>
       </c>
       <c r="D24">
-        <v>3.862679851349506</v>
+        <v>3.862679851349396</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.36322466394066</v>
+        <v>47.36322466394085</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.02200334921846</v>
+        <v>29.02200334921855</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.13405502138109</v>
+        <v>38.13405502138119</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.61216032963314</v>
+        <v>28.6121603296332</v>
       </c>
       <c r="C25">
         <v>19.20642000234263</v>
       </c>
       <c r="D25">
-        <v>3.806865527506055</v>
+        <v>3.806865527506022</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.52109841688723</v>
+        <v>42.5210984168874</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.55242898636347</v>
+        <v>26.55242898636352</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.71467137306431</v>
+        <v>33.71467137306443</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.99484931580258</v>
+        <v>25.86493389945189</v>
       </c>
       <c r="C2">
-        <v>17.47984217213986</v>
+        <v>17.32542447352585</v>
       </c>
       <c r="D2">
-        <v>3.795912590095933</v>
+        <v>3.907731315706687</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.04243282891888</v>
+        <v>39.10524248192586</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.029577125514678</v>
       </c>
       <c r="H2">
-        <v>24.78612806855435</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>24.89532108222541</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.36787535376007</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30.30468329746747</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.1191851942401</v>
+        <v>23.99488750532735</v>
       </c>
       <c r="C3">
-        <v>16.24100296092287</v>
+        <v>16.08967354424323</v>
       </c>
       <c r="D3">
-        <v>3.80271987339298</v>
+        <v>3.921663640980216</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.65432624265491</v>
+        <v>36.75732971323838</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.043397120355402</v>
       </c>
       <c r="H3">
-        <v>23.61504206080919</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>23.75157371358848</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.01448547835982</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>27.95808756782188</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.91415839540101</v>
+        <v>22.79333223610395</v>
       </c>
       <c r="C4">
-        <v>15.44466682538849</v>
+        <v>15.29511827340896</v>
       </c>
       <c r="D4">
-        <v>3.812656151543672</v>
+        <v>3.935743413702768</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.17195017562324</v>
+        <v>35.30201448124127</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.051979746410315</v>
       </c>
       <c r="H4">
-        <v>22.90782128298299</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>23.06219217230989</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.52036366503462</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26.46801110046498</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.40927577931673</v>
+        <v>22.28987462127751</v>
       </c>
       <c r="C5">
-        <v>15.11094588084457</v>
+        <v>14.96209274048134</v>
       </c>
       <c r="D5">
-        <v>3.817986940449626</v>
+        <v>3.942712109794811</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.56391679305138</v>
+        <v>34.7056277405622</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.055507800443103</v>
       </c>
       <c r="H5">
-        <v>22.62255557520642</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>22.7844527318308</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.89824125110515</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>25.84751745690797</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.32459434778911</v>
+        <v>22.20543055441982</v>
       </c>
       <c r="C6">
-        <v>15.05496925555967</v>
+        <v>14.90622969239194</v>
       </c>
       <c r="D6">
-        <v>3.818945026990335</v>
+        <v>3.943939335288897</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.46272099074375</v>
+        <v>34.60640372806601</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.056095643127599</v>
       </c>
       <c r="H6">
-        <v>22.57536470318429</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>22.73852674620933</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.79411351508043</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25.7436592923044</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.90740585376087</v>
+        <v>22.78659886514887</v>
       </c>
       <c r="C7">
-        <v>15.44020372185746</v>
+        <v>15.29066467387883</v>
       </c>
       <c r="D7">
-        <v>3.812723060637094</v>
+        <v>3.93583260703299</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.16376576819685</v>
+        <v>35.29398461504012</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.052027195629803</v>
       </c>
       <c r="H7">
-        <v>22.90396221805181</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>23.05843358494921</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.51202828390128</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26.45969775124154</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.35893696160532</v>
+        <v>25.23095709443451</v>
       </c>
       <c r="C8">
-        <v>17.05994748991492</v>
+        <v>16.90661821788476</v>
       </c>
       <c r="D8">
-        <v>3.79695908553149</v>
+        <v>3.911287052344257</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.22233665753802</v>
+        <v>38.29852465148151</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.034326055395853</v>
       </c>
       <c r="H8">
-        <v>24.37983085610752</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>24.49822841825666</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.56604197115191</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29.5052267826171</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.76401372887113</v>
+        <v>29.62186689284097</v>
       </c>
       <c r="C9">
-        <v>19.96520043470344</v>
+        <v>19.80350740393247</v>
       </c>
       <c r="D9">
-        <v>3.820301301478071</v>
+        <v>3.915246030795238</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.1006283104685</v>
+        <v>44.08859282410031</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.000059528830244</v>
       </c>
       <c r="H9">
-        <v>27.37501125636171</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>27.4310911258648</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.21350539450447</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>35.13434025486346</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.78993567671584</v>
+        <v>32.63679376509737</v>
       </c>
       <c r="C10">
-        <v>21.95415207012483</v>
+        <v>21.7856111739525</v>
       </c>
       <c r="D10">
-        <v>3.884467891225077</v>
+        <v>3.963437484163702</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.61527744171081</v>
+        <v>48.48749060415282</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.974606503614293</v>
       </c>
       <c r="H10">
-        <v>29.65720828531745</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>29.67227396702767</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.23827467192028</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>39.14320063180793</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.1307024000762</v>
+        <v>33.97225463293535</v>
       </c>
       <c r="C11">
-        <v>22.83283594284456</v>
+        <v>22.66095957482693</v>
       </c>
       <c r="D11">
-        <v>3.927683764549054</v>
+        <v>3.998931043613553</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.68339805185494</v>
+        <v>50.53408961196639</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.962807509711357</v>
       </c>
       <c r="H11">
-        <v>30.81058825582673</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>30.72288837958372</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>41.0675274295126</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>40.96420054519727</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.63433630596311</v>
+        <v>34.47381393139641</v>
       </c>
       <c r="C12">
-        <v>23.16238528530338</v>
+        <v>22.98920508837151</v>
       </c>
       <c r="D12">
-        <v>3.94645725787798</v>
+        <v>4.014708882995986</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.46684403482404</v>
+        <v>51.3094837855019</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.958290552448189</v>
       </c>
       <c r="H12">
-        <v>31.29338625158392</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.20018643053215</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.7628344718794</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>41.65617359508498</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.52603188440494</v>
+        <v>34.36595965357957</v>
       </c>
       <c r="C13">
-        <v>23.09154249578883</v>
+        <v>22.91864509778858</v>
       </c>
       <c r="D13">
-        <v>3.942299864372018</v>
+        <v>4.011199929961408</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.29806743483415</v>
+        <v>51.14243804949788</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.959265857770722</v>
       </c>
       <c r="H13">
-        <v>31.18930873079096</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.09729133364187</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.61291749462744</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>41.5069852220758</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.17221159556736</v>
+        <v>34.01359461224344</v>
       </c>
       <c r="C14">
-        <v>22.86000842249235</v>
+        <v>22.68802566927356</v>
       </c>
       <c r="D14">
-        <v>3.92917748388094</v>
+        <v>4.000179774298275</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.74783453197712</v>
+        <v>50.59786209942219</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.962436991810001</v>
       </c>
       <c r="H14">
-        <v>30.85026628977151</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>30.7621129157875</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>41.1246592780249</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>41.02106274105329</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.95498999144987</v>
+        <v>33.79725509675738</v>
       </c>
       <c r="C15">
-        <v>22.71779055820055</v>
+        <v>22.54636241386744</v>
       </c>
       <c r="D15">
-        <v>3.921466227348533</v>
+        <v>3.993746714999095</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.41090161644271</v>
+        <v>50.26440495061585</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.964372445683857</v>
       </c>
       <c r="H15">
-        <v>30.6428546437046</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>30.57964059766751</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.82602487515799</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>40.72382955295148</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.70167886406123</v>
+        <v>32.54887589884792</v>
       </c>
       <c r="C16">
-        <v>21.89624842670618</v>
+        <v>21.72792037881121</v>
       </c>
       <c r="D16">
-        <v>3.881957701326523</v>
+        <v>3.961422302556075</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.48005255885759</v>
+        <v>48.35368951979277</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.975371780125671</v>
       </c>
       <c r="H16">
-        <v>29.58826784452774</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>29.60451376406626</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.11892147329357</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>39.0243615155553</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.9243360047703</v>
+        <v>31.77446753066566</v>
       </c>
       <c r="C17">
-        <v>21.38594053959711</v>
+        <v>21.21945243565096</v>
       </c>
       <c r="D17">
-        <v>3.861569440448163</v>
+        <v>3.945320475742728</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.29398582050285</v>
+        <v>47.18021752700704</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.98205205214623</v>
       </c>
       <c r="H17">
-        <v>28.98708350801733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>29.01376083855918</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>38.07304143371826</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>37.98286787387689</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.47378971536168</v>
+        <v>31.32558210242652</v>
       </c>
       <c r="C18">
-        <v>21.08992864559068</v>
+        <v>20.92447880245494</v>
       </c>
       <c r="D18">
-        <v>3.851135680521001</v>
+        <v>3.937309651654402</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.61067565580812</v>
+        <v>46.50425978124738</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.985874871867324</v>
       </c>
       <c r="H18">
-        <v>28.64365946289197</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>28.67641549818352</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.4711169989577</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>37.3833756285866</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.32062348585773</v>
+        <v>31.17297412208662</v>
       </c>
       <c r="C19">
-        <v>20.98925999265676</v>
+        <v>20.82415847028011</v>
       </c>
       <c r="D19">
-        <v>3.847814287833923</v>
+        <v>3.934801502914926</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.37908051423173</v>
+        <v>46.27517430158426</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.987166325870017</v>
       </c>
       <c r="H19">
-        <v>28.52776170721365</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>28.5625901804725</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.26717902694974</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>37.18024710529678</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.00743455732758</v>
+        <v>31.85725662743856</v>
       </c>
       <c r="C20">
-        <v>21.44051832008867</v>
+        <v>21.27383647860566</v>
       </c>
       <c r="D20">
-        <v>3.863603376068729</v>
+        <v>3.946902555146793</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.4203488031844</v>
+        <v>47.30522897621557</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.981343055626114</v>
       </c>
       <c r="H20">
-        <v>29.05082987840282</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>29.07638879444149</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.18439644297694</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>38.09376571443114</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.27623839970287</v>
+        <v>34.11719596185514</v>
       </c>
       <c r="C21">
-        <v>22.92809705337165</v>
+        <v>22.7558468430819</v>
       </c>
       <c r="D21">
-        <v>3.932962975857636</v>
+        <v>4.00334977787604</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.90942631306113</v>
+        <v>50.75779019138144</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.961507039842815</v>
       </c>
       <c r="H21">
-        <v>30.9497940188767</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>30.86050432475008</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.26797503161354</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>41.16369872879756</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.73591144604666</v>
+        <v>35.57067782161328</v>
       </c>
       <c r="C22">
-        <v>23.88208279824575</v>
+        <v>23.7059487046362</v>
       </c>
       <c r="D22">
-        <v>3.992574354996317</v>
+        <v>4.054102886932401</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.19270839299398</v>
+        <v>53.01773810337829</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.948246419697546</v>
       </c>
       <c r="H22">
-        <v>32.35981797142157</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.25458406123972</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>43.30045059195428</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>43.18598839890044</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.95855272475221</v>
+        <v>34.79666926659783</v>
       </c>
       <c r="C23">
-        <v>23.37437134209936</v>
+        <v>23.20033653490732</v>
       </c>
       <c r="D23">
-        <v>3.959301328278823</v>
+        <v>4.025598149824814</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.97306346124896</v>
+        <v>51.8105225105159</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.955357904498056</v>
       </c>
       <c r="H23">
-        <v>31.60577740693054</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>31.50903802887385</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>42.2129394129723</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>42.10405780449772</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.96987712029433</v>
+        <v>31.8198391755065</v>
       </c>
       <c r="C24">
-        <v>21.41585193551385</v>
+        <v>21.24925774302323</v>
       </c>
       <c r="D24">
-        <v>3.862679851349396</v>
+        <v>3.946183443110611</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.36322466394085</v>
+        <v>47.24871551345195</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.981663647020727</v>
       </c>
       <c r="H24">
-        <v>29.02200334921855</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>29.04806764430345</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.13405502138119</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>38.04363125356935</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.6121603296332</v>
+        <v>28.4739022400519</v>
       </c>
       <c r="C25">
-        <v>19.20642000234263</v>
+        <v>19.0470972041194</v>
       </c>
       <c r="D25">
-        <v>3.806865527506022</v>
+        <v>3.907330298333796</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.5210984168874</v>
+        <v>42.53121413233941</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.00933242796875</v>
       </c>
       <c r="H25">
-        <v>26.55242898636352</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>26.62447953130849</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.71467137306443</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>33.64077092301694</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,850 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.86493389945189</v>
+        <v>21.67631520503343</v>
       </c>
       <c r="C2">
-        <v>17.32542447352585</v>
+        <v>15.03768227817793</v>
       </c>
       <c r="D2">
-        <v>3.907731315706687</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3.484681371644705</v>
       </c>
       <c r="F2">
-        <v>39.10524248192586</v>
+        <v>28.57093107129237</v>
       </c>
       <c r="G2">
-        <v>2.029577125514678</v>
+        <v>2.064457466187901</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.89532108222541</v>
-      </c>
-      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>30.30468329746747</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>19.01005296160806</v>
+      </c>
+      <c r="N2">
+        <v>11.5961308332861</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.99488750532735</v>
+        <v>20.13551757112698</v>
       </c>
       <c r="C3">
-        <v>16.08967354424323</v>
+        <v>13.9831365074626</v>
       </c>
       <c r="D3">
-        <v>3.921663640980216</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>3.587210478980186</v>
       </c>
       <c r="F3">
-        <v>36.75732971323838</v>
+        <v>27.31838576428036</v>
       </c>
       <c r="G3">
-        <v>2.043397120355402</v>
+        <v>2.074127895925671</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.75157371358848</v>
-      </c>
-      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>27.95808756782188</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17.67856366095799</v>
+      </c>
+      <c r="N3">
+        <v>11.88603262642512</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.79333223610395</v>
+        <v>19.14025386317662</v>
       </c>
       <c r="C4">
-        <v>15.29511827340896</v>
+        <v>13.30210058827954</v>
       </c>
       <c r="D4">
-        <v>3.935743413702768</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.650479242390301</v>
       </c>
       <c r="F4">
-        <v>35.30201448124127</v>
+        <v>26.55971989001484</v>
       </c>
       <c r="G4">
-        <v>2.051979746410315</v>
+        <v>2.080202166831037</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.06219217230989</v>
-      </c>
-      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>26.46801110046498</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.81829605194829</v>
+      </c>
+      <c r="N4">
+        <v>12.06671142906684</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.28987462127751</v>
+        <v>18.72214414400658</v>
       </c>
       <c r="C5">
-        <v>14.96209274048134</v>
+        <v>13.01601607511144</v>
       </c>
       <c r="D5">
-        <v>3.942712109794811</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>3.676373459874609</v>
       </c>
       <c r="F5">
-        <v>34.7056277405622</v>
+        <v>26.25345749674167</v>
       </c>
       <c r="G5">
-        <v>2.055507800443103</v>
+        <v>2.082713984469594</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.7844527318308</v>
-      </c>
-      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>25.84751745690797</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16.45683657586277</v>
+      </c>
+      <c r="N5">
+        <v>12.14106630621817</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20543055441982</v>
+        <v>18.65195606894377</v>
       </c>
       <c r="C6">
-        <v>14.90622969239194</v>
+        <v>12.96799169197277</v>
       </c>
       <c r="D6">
-        <v>3.943939335288897</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>3.680680817086062</v>
       </c>
       <c r="F6">
-        <v>34.60640372806601</v>
+        <v>26.20278711513532</v>
       </c>
       <c r="G6">
-        <v>2.056095643127599</v>
+        <v>2.08313333465415</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.73852674620933</v>
-      </c>
-      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>25.7436592923044</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16.39615435695001</v>
+      </c>
+      <c r="N6">
+        <v>12.15345827896748</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.78659886514887</v>
+        <v>19.13466603023778</v>
       </c>
       <c r="C7">
-        <v>15.29066467387883</v>
+        <v>13.2982771562869</v>
       </c>
       <c r="D7">
-        <v>3.93583260703299</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>3.650827967777798</v>
       </c>
       <c r="F7">
-        <v>35.29398461504012</v>
+        <v>26.55557737970724</v>
       </c>
       <c r="G7">
-        <v>2.052027195629803</v>
+        <v>2.080235891544603</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.05843358494921</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>26.45969775124154</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.81346558199424</v>
+      </c>
+      <c r="N7">
+        <v>12.06771119368384</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.23095709443451</v>
+        <v>21.15516227819056</v>
       </c>
       <c r="C8">
-        <v>16.90661821788476</v>
+        <v>14.68095993457671</v>
       </c>
       <c r="D8">
-        <v>3.911287052344257</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.51998826248897</v>
       </c>
       <c r="F8">
-        <v>38.29852465148151</v>
+        <v>28.13705098190794</v>
       </c>
       <c r="G8">
-        <v>2.034326055395853</v>
+        <v>2.06776483174176</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.49822841825666</v>
-      </c>
-      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>29.5052267826171</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>18.55973112463642</v>
+      </c>
+      <c r="N8">
+        <v>11.69556630036702</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.62186689284097</v>
+        <v>24.73470323220837</v>
       </c>
       <c r="C9">
-        <v>19.80350740393247</v>
+        <v>17.13222858152995</v>
       </c>
       <c r="D9">
-        <v>3.915246030795238</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>3.264299473685321</v>
       </c>
       <c r="F9">
-        <v>44.08859282410031</v>
+        <v>31.3111196452471</v>
       </c>
       <c r="G9">
-        <v>2.000059528830244</v>
+        <v>2.044286154930104</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.4310911258648</v>
-      </c>
-      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>35.13434025486346</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.65232963566338</v>
+      </c>
+      <c r="N9">
+        <v>10.98445743957261</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.63679376509737</v>
+        <v>27.14322713296112</v>
       </c>
       <c r="C10">
-        <v>21.7856111739525</v>
+        <v>18.78358633205769</v>
       </c>
       <c r="D10">
-        <v>3.963437484163702</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>3.07446535780986</v>
       </c>
       <c r="F10">
-        <v>48.48749060415282</v>
+        <v>33.67938568921659</v>
       </c>
       <c r="G10">
-        <v>1.974606503614293</v>
+        <v>2.027467123513319</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.67227396702767</v>
-      </c>
-      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>39.14320063180793</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.73300861243958</v>
+      </c>
+      <c r="N10">
+        <v>10.4695322401567</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.97225463293535</v>
+        <v>28.19381523480341</v>
       </c>
       <c r="C11">
-        <v>22.66095957482693</v>
+        <v>19.50457567304014</v>
       </c>
       <c r="D11">
-        <v>3.998931043613553</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>2.987027750294483</v>
       </c>
       <c r="F11">
-        <v>50.53408961196639</v>
+        <v>34.76451210522881</v>
       </c>
       <c r="G11">
-        <v>1.962807509711357</v>
+        <v>2.019867445204393</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.72288837958372</v>
-      </c>
-      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>40.96420054519727</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.64064728919081</v>
+      </c>
+      <c r="N11">
+        <v>10.23599454628537</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.47381393139641</v>
+        <v>28.58543956266703</v>
       </c>
       <c r="C12">
-        <v>22.98920508837151</v>
+        <v>19.77345609682715</v>
       </c>
       <c r="D12">
-        <v>4.014708882995986</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>2.953699916334706</v>
       </c>
       <c r="F12">
-        <v>51.3094837855019</v>
+        <v>35.17664300494363</v>
       </c>
       <c r="G12">
-        <v>1.958290552448189</v>
+        <v>2.016993072070232</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.20018643053215</v>
-      </c>
-      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>41.65617359508498</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>24.97900136388214</v>
+      </c>
+      <c r="N12">
+        <v>10.14757985408584</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.36595965357957</v>
+        <v>28.50136787257343</v>
       </c>
       <c r="C13">
-        <v>22.91864509778858</v>
+        <v>19.71572865275059</v>
       </c>
       <c r="D13">
-        <v>4.011199929961408</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>2.960888385765928</v>
       </c>
       <c r="F13">
-        <v>51.14243804949788</v>
+        <v>35.08782654141092</v>
       </c>
       <c r="G13">
-        <v>1.959265857770722</v>
+        <v>2.017612033645915</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.09729133364187</v>
-      </c>
-      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>41.5069852220758</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24.9063645487202</v>
+      </c>
+      <c r="N13">
+        <v>10.16662193928032</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.01359461224344</v>
+        <v>28.22615722709337</v>
       </c>
       <c r="C14">
-        <v>22.68802566927356</v>
+        <v>19.52677840727962</v>
       </c>
       <c r="D14">
-        <v>4.000179774298275</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>2.984290582283215</v>
       </c>
       <c r="F14">
-        <v>50.59786209942219</v>
+        <v>34.79839307353431</v>
       </c>
       <c r="G14">
-        <v>1.962436991810001</v>
+        <v>2.019630923684774</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.7621129157875</v>
-      </c>
-      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>41.02106274105329</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.66858961408209</v>
+      </c>
+      <c r="N14">
+        <v>10.22872067386577</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.79725509675738</v>
+        <v>28.05678244479913</v>
       </c>
       <c r="C15">
-        <v>22.54636241386744</v>
+        <v>19.41050784920232</v>
       </c>
       <c r="D15">
-        <v>3.993746714999095</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>2.998594863353139</v>
       </c>
       <c r="F15">
-        <v>50.26440495061585</v>
+        <v>34.62126972610269</v>
       </c>
       <c r="G15">
-        <v>1.964372445683857</v>
+        <v>2.020867877899716</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.57964059766751</v>
-      </c>
-      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>40.72382955295148</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.52225658396732</v>
+      </c>
+      <c r="N15">
+        <v>10.26675820365545</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.54887589884792</v>
+        <v>27.07368434129317</v>
       </c>
       <c r="C16">
-        <v>21.72792037881121</v>
+        <v>18.73587672651529</v>
       </c>
       <c r="D16">
-        <v>3.961422302556075</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>3.080152764366366</v>
       </c>
       <c r="F16">
-        <v>48.35368951979277</v>
+        <v>33.6086330061668</v>
       </c>
       <c r="G16">
-        <v>1.975371780125671</v>
+        <v>2.027964489223901</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.60451376406626</v>
-      </c>
-      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>39.0243615155553</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.67293009865256</v>
+      </c>
+      <c r="N16">
+        <v>10.48480189809796</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.77446753066566</v>
+        <v>26.4592268850492</v>
       </c>
       <c r="C17">
-        <v>21.21945243565096</v>
+        <v>18.31440979964345</v>
       </c>
       <c r="D17">
-        <v>3.945320475742728</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>3.129867551918675</v>
       </c>
       <c r="F17">
-        <v>47.18021752700704</v>
+        <v>32.98944769090183</v>
       </c>
       <c r="G17">
-        <v>1.98205205214623</v>
+        <v>2.032328541623571</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.01376083855918</v>
-      </c>
-      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>37.98286787387689</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23.14210330685204</v>
+      </c>
+      <c r="N17">
+        <v>10.6186894657511</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.32558210242652</v>
+        <v>26.10154810304948</v>
       </c>
       <c r="C18">
-        <v>20.92447880245494</v>
+        <v>18.06913520580026</v>
       </c>
       <c r="D18">
-        <v>3.937309651654402</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>3.158364547610804</v>
       </c>
       <c r="F18">
-        <v>46.50425978124738</v>
+        <v>32.63403049537521</v>
       </c>
       <c r="G18">
-        <v>1.985874871867324</v>
+        <v>2.03484372696943</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.67641549818352</v>
-      </c>
-      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>37.3833756285866</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22.83311111542058</v>
+      </c>
+      <c r="N18">
+        <v>10.69576946572258</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.17297412208662</v>
+        <v>25.97970496383968</v>
       </c>
       <c r="C19">
-        <v>20.82415847028011</v>
+        <v>17.98559274119539</v>
       </c>
       <c r="D19">
-        <v>3.934801502914926</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>3.167998124442058</v>
       </c>
       <c r="F19">
-        <v>46.27517430158426</v>
+        <v>32.51381489996364</v>
       </c>
       <c r="G19">
-        <v>1.987166325870017</v>
+        <v>2.035696313187632</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.5625901804725</v>
-      </c>
-      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>37.18024710529678</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22.72785360169308</v>
+      </c>
+      <c r="N19">
+        <v>10.72188206071626</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.85725662743856</v>
+        <v>26.52507587191611</v>
       </c>
       <c r="C20">
-        <v>21.27383647860566</v>
+        <v>18.35957005890772</v>
       </c>
       <c r="D20">
-        <v>3.946902555146793</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>3.124585854452779</v>
       </c>
       <c r="F20">
-        <v>47.30522897621557</v>
+        <v>33.05528591890454</v>
       </c>
       <c r="G20">
-        <v>1.981343055626114</v>
+        <v>2.031863480146396</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.07638879444149</v>
-      </c>
-      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>38.09376571443114</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>23.19898937253871</v>
+      </c>
+      <c r="N20">
+        <v>10.60443008076545</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.11719596185514</v>
+        <v>28.30715952748525</v>
       </c>
       <c r="C21">
-        <v>22.7558468430819</v>
+        <v>19.58238837254962</v>
       </c>
       <c r="D21">
-        <v>4.00334977787604</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>2.97742321341511</v>
       </c>
       <c r="F21">
-        <v>50.75779019138144</v>
+        <v>34.88337241900872</v>
       </c>
       <c r="G21">
-        <v>1.961507039842815</v>
+        <v>2.019037866558338</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.86050432475008</v>
-      </c>
-      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>41.16369872879756</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.73857300028398</v>
+      </c>
+      <c r="N21">
+        <v>10.21048086592782</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.57067782161328</v>
+        <v>29.43580104390798</v>
       </c>
       <c r="C22">
-        <v>23.7059487046362</v>
+        <v>20.35753576828676</v>
       </c>
       <c r="D22">
-        <v>4.054102886932401</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>2.879943795779473</v>
       </c>
       <c r="F22">
-        <v>53.01773810337829</v>
+        <v>36.08534177134602</v>
       </c>
       <c r="G22">
-        <v>1.948246419697546</v>
+        <v>2.010673566867279</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.25458406123972</v>
-      </c>
-      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>43.18598839890044</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25.71373279826223</v>
+      </c>
+      <c r="N22">
+        <v>9.95309372751032</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.79666926659783</v>
+        <v>28.8366258839332</v>
       </c>
       <c r="C23">
-        <v>23.20033653490732</v>
+        <v>19.94595105543823</v>
       </c>
       <c r="D23">
-        <v>4.025598149824814</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>2.932111886496686</v>
       </c>
       <c r="F23">
-        <v>51.8105225105159</v>
+        <v>35.44311110005761</v>
       </c>
       <c r="G23">
-        <v>1.955357904498056</v>
+        <v>2.015137534507067</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.50903802887385</v>
-      </c>
-      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>42.10405780449772</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>25.19602604147963</v>
+      </c>
+      <c r="N23">
+        <v>10.09048644618654</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.8198391755065</v>
+        <v>26.49531932913707</v>
       </c>
       <c r="C24">
-        <v>21.24925774302323</v>
+        <v>18.33916236430328</v>
       </c>
       <c r="D24">
-        <v>3.946183443110611</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>3.12697396914348</v>
       </c>
       <c r="F24">
-        <v>47.24871551345195</v>
+        <v>33.02551871566047</v>
       </c>
       <c r="G24">
-        <v>1.981663647020727</v>
+        <v>2.032073714733603</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.04806764430345</v>
-      </c>
-      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>38.04363125356935</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>23.17328307612468</v>
+      </c>
+      <c r="N24">
+        <v>10.61087641175231</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.4739022400519</v>
+        <v>23.80614322029312</v>
       </c>
       <c r="C25">
-        <v>19.0470972041194</v>
+        <v>16.49606370762882</v>
       </c>
       <c r="D25">
-        <v>3.907330298333796</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>3.333618370186607</v>
       </c>
       <c r="F25">
-        <v>42.53121413233941</v>
+        <v>30.44575695972511</v>
       </c>
       <c r="G25">
-        <v>2.00933242796875</v>
+        <v>2.050549162588283</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.62447953130849</v>
-      </c>
-      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>33.64077092301694</v>
-      </c>
-      <c r="M25">
+        <v>20.85015769810948</v>
+      </c>
+      <c r="N25">
+        <v>11.17521494689773</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.67631520503343</v>
+        <v>25.82560918240267</v>
       </c>
       <c r="C2">
-        <v>15.03768227817793</v>
+        <v>19.12859321480414</v>
       </c>
       <c r="D2">
-        <v>3.484681371644705</v>
+        <v>2.982764810694197</v>
       </c>
       <c r="F2">
-        <v>28.57093107129237</v>
+        <v>30.96222913320513</v>
       </c>
       <c r="G2">
-        <v>2.064457466187901</v>
+        <v>2.043378572999083</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.01005296160806</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.5961308332861</v>
+        <v>10.93302481347341</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.13551757112698</v>
+        <v>23.97506736405809</v>
       </c>
       <c r="C3">
-        <v>13.9831365074626</v>
+        <v>17.77283301785675</v>
       </c>
       <c r="D3">
-        <v>3.587210478980186</v>
+        <v>3.113612820690224</v>
       </c>
       <c r="F3">
-        <v>27.31838576428036</v>
+        <v>29.32995827372424</v>
       </c>
       <c r="G3">
-        <v>2.074127895925671</v>
+        <v>2.054626028684236</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.67856366095799</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.88603262642512</v>
+        <v>11.24861171488622</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.14025386317662</v>
+        <v>22.78155841701191</v>
       </c>
       <c r="C4">
-        <v>13.30210058827954</v>
+        <v>16.89862946399136</v>
       </c>
       <c r="D4">
-        <v>3.650479242390301</v>
+        <v>3.194889314745464</v>
       </c>
       <c r="F4">
-        <v>26.55971989001484</v>
+        <v>28.33040990828196</v>
       </c>
       <c r="G4">
-        <v>2.080202166831037</v>
+        <v>2.061670981910805</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.81829605194829</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.06671142906684</v>
+        <v>11.44439492307025</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.72214414400658</v>
+        <v>22.28055705390689</v>
       </c>
       <c r="C5">
-        <v>13.01601607511144</v>
+        <v>16.53169311695377</v>
       </c>
       <c r="D5">
-        <v>3.676373459874609</v>
+        <v>3.228268749340022</v>
       </c>
       <c r="F5">
-        <v>26.25345749674167</v>
+        <v>27.92409375886218</v>
       </c>
       <c r="G5">
-        <v>2.082713984469594</v>
+        <v>2.064579871875725</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.45683657586277</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.14106630621817</v>
+        <v>11.52476711502281</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.65195606894377</v>
+        <v>22.19647558172386</v>
       </c>
       <c r="C6">
-        <v>12.96799169197277</v>
+        <v>16.47011257373003</v>
       </c>
       <c r="D6">
-        <v>3.680680817086062</v>
+        <v>3.233827693194744</v>
       </c>
       <c r="F6">
-        <v>26.20278711513532</v>
+        <v>27.8566977947629</v>
       </c>
       <c r="G6">
-        <v>2.08313333465415</v>
+        <v>2.065065271681761</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.39615435695001</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.15345827896748</v>
+        <v>11.53815073346741</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.13466603023778</v>
+        <v>22.77486130038349</v>
       </c>
       <c r="C7">
-        <v>13.2982771562869</v>
+        <v>16.89372436305487</v>
       </c>
       <c r="D7">
-        <v>3.650827967777798</v>
+        <v>3.195338402994589</v>
       </c>
       <c r="F7">
-        <v>26.55557737970724</v>
+        <v>28.32492559201778</v>
       </c>
       <c r="G7">
-        <v>2.080235891544603</v>
+        <v>2.06171005442794</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.81346558199424</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.06771119368384</v>
+        <v>11.44547636079292</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.15516227819056</v>
+        <v>25.19928034150498</v>
       </c>
       <c r="C8">
-        <v>14.68095993457671</v>
+        <v>18.66967593842002</v>
       </c>
       <c r="D8">
-        <v>3.51998826248897</v>
+        <v>3.027700922851666</v>
       </c>
       <c r="F8">
-        <v>28.13705098190794</v>
+        <v>30.39903805002347</v>
       </c>
       <c r="G8">
-        <v>2.06776483174176</v>
+        <v>2.047229785245104</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.55973112463642</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.69556630036702</v>
+        <v>11.04147387055255</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.73470323220837</v>
+        <v>29.51088559758673</v>
       </c>
       <c r="C9">
-        <v>17.13222858152995</v>
+        <v>21.8303091735894</v>
       </c>
       <c r="D9">
-        <v>3.264299473685321</v>
+        <v>2.70541345793079</v>
       </c>
       <c r="F9">
-        <v>31.3111196452471</v>
+        <v>34.47841926152896</v>
       </c>
       <c r="G9">
-        <v>2.044286154930104</v>
+        <v>2.019782537104571</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.65232963566338</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.98445743957261</v>
+        <v>10.26104295011735</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.14322713296112</v>
+        <v>32.42693075288709</v>
       </c>
       <c r="C10">
-        <v>18.78358633205769</v>
+        <v>23.97054761811922</v>
       </c>
       <c r="D10">
-        <v>3.07446535780986</v>
+        <v>2.47152936751672</v>
       </c>
       <c r="F10">
-        <v>33.67938568921659</v>
+        <v>37.47956975598629</v>
       </c>
       <c r="G10">
-        <v>2.027467123513319</v>
+        <v>1.999952548523803</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.73300861243958</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.4695322401567</v>
+        <v>9.688416029121754</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.19381523480341</v>
+        <v>33.70349574171758</v>
       </c>
       <c r="C11">
-        <v>19.50457567304014</v>
+        <v>24.90837478753978</v>
       </c>
       <c r="D11">
-        <v>2.987027750294483</v>
+        <v>2.365718109535692</v>
       </c>
       <c r="F11">
-        <v>34.76451210522881</v>
+        <v>38.96906600056484</v>
       </c>
       <c r="G11">
-        <v>2.019867445204393</v>
+        <v>1.990940860821216</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.64064728919081</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.23599454628537</v>
+        <v>9.426430353277478</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.58543956266703</v>
+        <v>34.18015572456625</v>
       </c>
       <c r="C12">
-        <v>19.77345609682715</v>
+        <v>25.25871166879352</v>
       </c>
       <c r="D12">
-        <v>2.953699916334706</v>
+        <v>2.325755431284825</v>
       </c>
       <c r="F12">
-        <v>35.17664300494363</v>
+        <v>39.53494976502024</v>
       </c>
       <c r="G12">
-        <v>2.016993072070232</v>
+        <v>1.9875234939224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.97900136388214</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.14757985408584</v>
+        <v>9.326851508367136</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.50136787257343</v>
+        <v>34.07779098644371</v>
       </c>
       <c r="C13">
-        <v>19.71572865275059</v>
+        <v>25.18346771054938</v>
       </c>
       <c r="D13">
-        <v>2.960888385765928</v>
+        <v>2.334356739452057</v>
       </c>
       <c r="F13">
-        <v>35.08782654141092</v>
+        <v>39.41313970541637</v>
       </c>
       <c r="G13">
-        <v>2.017612033645915</v>
+        <v>1.988259807675128</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.9063645487202</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.16662193928032</v>
+        <v>9.3483167611766</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.22615722709337</v>
+        <v>33.74284336702872</v>
       </c>
       <c r="C14">
-        <v>19.52677840727962</v>
+        <v>24.937291216203</v>
       </c>
       <c r="D14">
-        <v>2.984290582283215</v>
+        <v>2.362428007409115</v>
       </c>
       <c r="F14">
-        <v>34.79839307353431</v>
+        <v>39.01565092664426</v>
       </c>
       <c r="G14">
-        <v>2.019630923684774</v>
+        <v>1.990659847322837</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.66858961408209</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.22872067386577</v>
+        <v>9.418246328683718</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.05678244479913</v>
+        <v>33.53681350008593</v>
       </c>
       <c r="C15">
-        <v>19.41050784920232</v>
+        <v>24.78588726806304</v>
       </c>
       <c r="D15">
-        <v>2.998594863353139</v>
+        <v>2.379637377468019</v>
       </c>
       <c r="F15">
-        <v>34.62126972610269</v>
+        <v>38.77198249359294</v>
       </c>
       <c r="G15">
-        <v>2.020867877899716</v>
+        <v>1.992129113457063</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.52225658396732</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.26675820365545</v>
+        <v>9.46102700322189</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.07368434129317</v>
+        <v>32.34253496668256</v>
       </c>
       <c r="C16">
-        <v>18.73587672651529</v>
+        <v>23.9085670834492</v>
       </c>
       <c r="D16">
-        <v>3.080152764366366</v>
+        <v>2.478457381932922</v>
       </c>
       <c r="F16">
-        <v>33.6086330061668</v>
+        <v>37.39024125237056</v>
       </c>
       <c r="G16">
-        <v>2.027964489223901</v>
+        <v>2.000541161073956</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.67293009865256</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.48480189809796</v>
+        <v>9.70549445864876</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.4592268850492</v>
+        <v>31.59738137831346</v>
       </c>
       <c r="C17">
-        <v>18.31440979964345</v>
+        <v>23.36142878179393</v>
       </c>
       <c r="D17">
-        <v>3.129867551918675</v>
+        <v>2.539237269830486</v>
       </c>
       <c r="F17">
-        <v>32.98944769090183</v>
+        <v>36.60774640818422</v>
       </c>
       <c r="G17">
-        <v>2.032328541623571</v>
+        <v>2.005699904696547</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.14210330685204</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.6186894657511</v>
+        <v>9.854979616134273</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10154810304948</v>
+        <v>31.16405719634496</v>
       </c>
       <c r="C18">
-        <v>18.06913520580026</v>
+        <v>23.04333846519611</v>
       </c>
       <c r="D18">
-        <v>3.158364547610804</v>
+        <v>2.57424868766923</v>
       </c>
       <c r="F18">
-        <v>32.63403049537521</v>
+        <v>36.15792318404664</v>
       </c>
       <c r="G18">
-        <v>2.03484372696943</v>
+        <v>2.00866834709718</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.83311111542058</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.69576946572258</v>
+        <v>9.940829199760802</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.97970496383968</v>
+        <v>31.01651603000685</v>
       </c>
       <c r="C19">
-        <v>17.98559274119539</v>
+        <v>22.93504632835025</v>
       </c>
       <c r="D19">
-        <v>3.167998124442058</v>
+        <v>2.586111713068838</v>
       </c>
       <c r="F19">
-        <v>32.51381489996364</v>
+        <v>36.00565511166869</v>
       </c>
       <c r="G19">
-        <v>2.035696313187632</v>
+        <v>2.009673801786713</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.72785360169308</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.72188206071626</v>
+        <v>9.969878446816189</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.52507587191611</v>
+        <v>31.67719096426034</v>
       </c>
       <c r="C20">
-        <v>18.35957005890772</v>
+        <v>23.42002115841574</v>
       </c>
       <c r="D20">
-        <v>3.124585854452779</v>
+        <v>2.53276164791914</v>
       </c>
       <c r="F20">
-        <v>33.05528591890454</v>
+        <v>36.6910167139181</v>
       </c>
       <c r="G20">
-        <v>2.031863480146396</v>
+        <v>2.005150657935014</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.19898937253871</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.60443008076545</v>
+        <v>9.839081221010709</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.30715952748525</v>
+        <v>33.84140495840575</v>
       </c>
       <c r="C21">
-        <v>19.58238837254962</v>
+        <v>25.00972643542021</v>
       </c>
       <c r="D21">
-        <v>2.97742321341511</v>
+        <v>2.354179606386471</v>
       </c>
       <c r="F21">
-        <v>34.88337241900872</v>
+        <v>39.13244260917242</v>
       </c>
       <c r="G21">
-        <v>2.019037866558338</v>
+        <v>1.989955082203256</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.73857300028398</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.21048086592782</v>
+        <v>9.397717712864736</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.43580104390798</v>
+        <v>35.21676117730095</v>
       </c>
       <c r="C22">
-        <v>20.35753576828676</v>
+        <v>26.02092153627659</v>
       </c>
       <c r="D22">
-        <v>2.879943795779473</v>
+        <v>2.238116716251501</v>
       </c>
       <c r="F22">
-        <v>36.08534177134602</v>
+        <v>40.77711033961594</v>
       </c>
       <c r="G22">
-        <v>2.010673566867279</v>
+        <v>1.979992167931604</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.71373279826223</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>9.95309372751032</v>
+        <v>9.1070145522032</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.8366258839332</v>
+        <v>34.48612377271236</v>
       </c>
       <c r="C23">
-        <v>19.94595105543823</v>
+        <v>25.48364119505427</v>
       </c>
       <c r="D23">
-        <v>2.932111886496686</v>
+        <v>2.29998648662811</v>
       </c>
       <c r="F23">
-        <v>35.44311110005761</v>
+        <v>39.89995989461126</v>
       </c>
       <c r="G23">
-        <v>2.015137534507067</v>
+        <v>1.985314740162956</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.19602604147963</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.09048644618654</v>
+        <v>9.262430477027101</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.49531932913707</v>
+        <v>31.64112442434257</v>
       </c>
       <c r="C24">
-        <v>18.33916236430328</v>
+        <v>23.39354257567384</v>
       </c>
       <c r="D24">
-        <v>3.12697396914348</v>
+        <v>2.535689065214219</v>
       </c>
       <c r="F24">
-        <v>33.02551871566047</v>
+        <v>36.65337009754592</v>
       </c>
       <c r="G24">
-        <v>2.032073714733603</v>
+        <v>2.005398963808948</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.17328307612468</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.61087641175231</v>
+        <v>9.846269158733351</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.80614322029312</v>
+        <v>28.39011279973351</v>
       </c>
       <c r="C25">
-        <v>16.49606370762882</v>
+        <v>21.00834757076406</v>
       </c>
       <c r="D25">
-        <v>3.333618370186607</v>
+        <v>2.792038024768843</v>
       </c>
       <c r="F25">
-        <v>30.44575695972511</v>
+        <v>33.37435385270629</v>
       </c>
       <c r="G25">
-        <v>2.050549162588283</v>
+        <v>2.02712949621843</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.85015769810948</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.17521494689773</v>
+        <v>10.47152882252951</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.82560918240267</v>
+        <v>17.00648322401483</v>
       </c>
       <c r="C2">
-        <v>19.12859321480414</v>
+        <v>10.69828057976813</v>
       </c>
       <c r="D2">
-        <v>2.982764810694197</v>
+        <v>4.981623389126059</v>
       </c>
       <c r="F2">
-        <v>30.96222913320513</v>
+        <v>29.55748212936986</v>
       </c>
       <c r="G2">
-        <v>2.043378572999083</v>
+        <v>3.632106957472635</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.93302481347341</v>
+        <v>17.00829988987423</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.97506736405809</v>
+        <v>16.35302150500121</v>
       </c>
       <c r="C3">
-        <v>17.77283301785675</v>
+        <v>10.07373862251478</v>
       </c>
       <c r="D3">
-        <v>3.113612820690224</v>
+        <v>5.015163060677339</v>
       </c>
       <c r="F3">
-        <v>29.32995827372424</v>
+        <v>29.27485066424385</v>
       </c>
       <c r="G3">
-        <v>2.054626028684236</v>
+        <v>3.635999053925908</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.24861171488622</v>
+        <v>17.08916981434259</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.78155841701191</v>
+        <v>15.94320722061095</v>
       </c>
       <c r="C4">
-        <v>16.89862946399136</v>
+        <v>9.672007426524317</v>
       </c>
       <c r="D4">
-        <v>3.194889314745464</v>
+        <v>5.036627821544934</v>
       </c>
       <c r="F4">
-        <v>28.33040990828196</v>
+        <v>29.11213250202849</v>
       </c>
       <c r="G4">
-        <v>2.061670981910805</v>
+        <v>3.638510617883818</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.44439492307025</v>
+        <v>17.14090347359768</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.28055705390689</v>
+        <v>15.77433220721966</v>
       </c>
       <c r="C5">
-        <v>16.53169311695377</v>
+        <v>9.503855165650759</v>
       </c>
       <c r="D5">
-        <v>3.228268749340022</v>
+        <v>5.045594692439061</v>
       </c>
       <c r="F5">
-        <v>27.92409375886218</v>
+        <v>29.04860873339883</v>
       </c>
       <c r="G5">
-        <v>2.064579871875725</v>
+        <v>3.639564849794331</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.52476711502281</v>
+        <v>17.16251028206955</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.19647558172386</v>
+        <v>15.74618648666673</v>
       </c>
       <c r="C6">
-        <v>16.47011257373003</v>
+        <v>9.475670185097604</v>
       </c>
       <c r="D6">
-        <v>3.233827693194744</v>
+        <v>5.047096931502469</v>
       </c>
       <c r="F6">
-        <v>27.8566977947629</v>
+        <v>29.03823063079917</v>
       </c>
       <c r="G6">
-        <v>2.065065271681761</v>
+        <v>3.639741764937086</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.53815073346741</v>
+        <v>17.16612984142947</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.77486130038349</v>
+        <v>15.94093689466966</v>
       </c>
       <c r="C7">
-        <v>16.89372436305487</v>
+        <v>9.669757439146853</v>
       </c>
       <c r="D7">
-        <v>3.195338402994589</v>
+        <v>5.036747860997988</v>
       </c>
       <c r="F7">
-        <v>28.32492559201778</v>
+        <v>29.11126444106202</v>
       </c>
       <c r="G7">
-        <v>2.06171005442794</v>
+        <v>3.638524710963195</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.44547636079292</v>
+        <v>17.14119274249249</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19928034150498</v>
+        <v>16.78311493440999</v>
       </c>
       <c r="C8">
-        <v>18.66967593842002</v>
+        <v>10.48680788211401</v>
       </c>
       <c r="D8">
-        <v>3.027700922851666</v>
+        <v>4.993007470704613</v>
       </c>
       <c r="F8">
-        <v>30.39903805002347</v>
+        <v>29.45782638496409</v>
       </c>
       <c r="G8">
-        <v>2.047229785245104</v>
+        <v>3.633423745760905</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.04147387055255</v>
+        <v>17.03575356874946</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.51088559758673</v>
+        <v>18.35532964234293</v>
       </c>
       <c r="C9">
-        <v>21.8303091735894</v>
+        <v>11.93908014991649</v>
       </c>
       <c r="D9">
-        <v>2.70541345793079</v>
+        <v>4.914112422918913</v>
       </c>
       <c r="F9">
-        <v>34.47841926152896</v>
+        <v>30.22009429542702</v>
       </c>
       <c r="G9">
-        <v>2.019782537104571</v>
+        <v>3.624381662019557</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.26104295011735</v>
+        <v>16.8453878117096</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.42693075288709</v>
+        <v>19.44907093696457</v>
       </c>
       <c r="C10">
-        <v>23.97054761811922</v>
+        <v>12.90946038661791</v>
       </c>
       <c r="D10">
-        <v>2.47152936751672</v>
+        <v>4.860294823979975</v>
       </c>
       <c r="F10">
-        <v>37.47956975598629</v>
+        <v>30.82584676095372</v>
       </c>
       <c r="G10">
-        <v>1.999952548523803</v>
+        <v>3.61831646158958</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.688416029121754</v>
+        <v>16.7153849479996</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.70349574171758</v>
+        <v>19.9310806596658</v>
       </c>
       <c r="C11">
-        <v>24.90837478753978</v>
+        <v>13.32920626576599</v>
       </c>
       <c r="D11">
-        <v>2.365718109535692</v>
+        <v>4.836702172633514</v>
       </c>
       <c r="F11">
-        <v>38.96906600056484</v>
+        <v>31.11025059025355</v>
       </c>
       <c r="G11">
-        <v>1.990940860821216</v>
+        <v>3.615681093220704</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.426430353277478</v>
+        <v>16.65835407118458</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.18015572456625</v>
+        <v>20.11121564355559</v>
       </c>
       <c r="C12">
-        <v>25.25871166879352</v>
+        <v>13.48499173400841</v>
       </c>
       <c r="D12">
-        <v>2.325755431284825</v>
+        <v>4.827895399106762</v>
       </c>
       <c r="F12">
-        <v>39.53494976502024</v>
+        <v>31.21912190702791</v>
       </c>
       <c r="G12">
-        <v>1.9875234939224</v>
+        <v>3.614700810709469</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.326851508367136</v>
+        <v>16.63705884414714</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.07779098644371</v>
+        <v>20.07252900139363</v>
       </c>
       <c r="C13">
-        <v>25.18346771054938</v>
+        <v>13.45158182982517</v>
       </c>
       <c r="D13">
-        <v>2.334356739452057</v>
+        <v>4.829786445533124</v>
       </c>
       <c r="F13">
-        <v>39.41313970541637</v>
+        <v>31.19562390108752</v>
       </c>
       <c r="G13">
-        <v>1.988259807675128</v>
+        <v>3.614911147873526</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.3483167611766</v>
+        <v>16.64163179150297</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.74284336702872</v>
+        <v>19.94594923111199</v>
       </c>
       <c r="C14">
-        <v>24.937291216203</v>
+        <v>13.34208644354469</v>
       </c>
       <c r="D14">
-        <v>2.362428007409115</v>
+        <v>4.835975087272577</v>
       </c>
       <c r="F14">
-        <v>39.01565092664426</v>
+        <v>31.11918454425946</v>
       </c>
       <c r="G14">
-        <v>1.990659847322837</v>
+        <v>3.6156000912367</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.418246328683718</v>
+        <v>16.65659607648882</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.53681350008593</v>
+        <v>19.8680996986742</v>
       </c>
       <c r="C15">
-        <v>24.78588726806304</v>
+        <v>13.27460427167941</v>
       </c>
       <c r="D15">
-        <v>2.379637377468019</v>
+        <v>4.839782362750373</v>
       </c>
       <c r="F15">
-        <v>38.77198249359294</v>
+        <v>31.07251314252931</v>
       </c>
       <c r="G15">
-        <v>1.992129113457063</v>
+        <v>3.61602438719473</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.46102700322189</v>
+        <v>16.66580128929759</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34253496668256</v>
+        <v>19.41724386712814</v>
       </c>
       <c r="C16">
-        <v>23.9085670834492</v>
+        <v>12.88158855374856</v>
       </c>
       <c r="D16">
-        <v>2.478457381932922</v>
+        <v>4.861854499707798</v>
       </c>
       <c r="F16">
-        <v>37.39024125237056</v>
+        <v>30.80742994257739</v>
       </c>
       <c r="G16">
-        <v>2.000541161073956</v>
+        <v>3.618491168721719</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.70549445864876</v>
+        <v>16.71915429785625</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.59738137831346</v>
+        <v>19.13655992847566</v>
       </c>
       <c r="C17">
-        <v>23.36142878179393</v>
+        <v>12.63489651152047</v>
       </c>
       <c r="D17">
-        <v>2.539237269830486</v>
+        <v>4.875622351408937</v>
       </c>
       <c r="F17">
-        <v>36.60774640818422</v>
+        <v>30.64700620415433</v>
       </c>
       <c r="G17">
-        <v>2.005699904696547</v>
+        <v>3.620036064226988</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.854979616134273</v>
+        <v>16.75242313772152</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16405719634496</v>
+        <v>18.97366335134805</v>
       </c>
       <c r="C18">
-        <v>23.04333846519611</v>
+        <v>12.49096657409505</v>
       </c>
       <c r="D18">
-        <v>2.57424868766923</v>
+        <v>4.883624991723049</v>
       </c>
       <c r="F18">
-        <v>36.15792318404664</v>
+        <v>30.55557319952402</v>
       </c>
       <c r="G18">
-        <v>2.00866834709718</v>
+        <v>3.620936299497772</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.940829199760802</v>
+        <v>16.77175703677358</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01651603000685</v>
+        <v>18.91826468025555</v>
       </c>
       <c r="C19">
-        <v>22.93504632835025</v>
+        <v>12.44188569004283</v>
       </c>
       <c r="D19">
-        <v>2.586111713068838</v>
+        <v>4.886348949117463</v>
       </c>
       <c r="F19">
-        <v>36.00565511166869</v>
+        <v>30.52476251221086</v>
       </c>
       <c r="G19">
-        <v>2.009673801786713</v>
+        <v>3.621243108535336</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.969878446816189</v>
+        <v>16.77833732390475</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.67719096426034</v>
+        <v>19.16659096433131</v>
       </c>
       <c r="C20">
-        <v>23.42002115841574</v>
+        <v>12.66136871051456</v>
       </c>
       <c r="D20">
-        <v>2.53276164791914</v>
+        <v>4.874148078263476</v>
       </c>
       <c r="F20">
-        <v>36.6910167139181</v>
+        <v>30.66399750730347</v>
       </c>
       <c r="G20">
-        <v>2.005150657935014</v>
+        <v>3.619870402347602</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.839081221010709</v>
+        <v>16.74886107913844</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.84140495840575</v>
+        <v>19.98319483523797</v>
       </c>
       <c r="C21">
-        <v>25.00972643542021</v>
+        <v>13.37433404466827</v>
       </c>
       <c r="D21">
-        <v>2.354179606386471</v>
+        <v>4.834153884482625</v>
       </c>
       <c r="F21">
-        <v>39.13244260917242</v>
+        <v>31.14160557266149</v>
       </c>
       <c r="G21">
-        <v>1.989955082203256</v>
+        <v>3.615397253123882</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.397717712864736</v>
+        <v>16.65219254671415</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.21676117730095</v>
+        <v>20.50289384205021</v>
       </c>
       <c r="C22">
-        <v>26.02092153627659</v>
+        <v>13.83805691341151</v>
       </c>
       <c r="D22">
-        <v>2.238116716251501</v>
+        <v>4.808756808346468</v>
       </c>
       <c r="F22">
-        <v>40.77711033961594</v>
+        <v>31.46054480438615</v>
       </c>
       <c r="G22">
-        <v>1.979992167931604</v>
+        <v>3.612576756872961</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.1070145522032</v>
+        <v>16.59076834824446</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.48612377271236</v>
+        <v>20.22684820232422</v>
       </c>
       <c r="C23">
-        <v>25.48364119505427</v>
+        <v>13.584701333171</v>
       </c>
       <c r="D23">
-        <v>2.29998648662811</v>
+        <v>4.822244065196632</v>
       </c>
       <c r="F23">
-        <v>39.89995989461126</v>
+        <v>31.28973211329585</v>
       </c>
       <c r="G23">
-        <v>1.985314740162956</v>
+        <v>3.614072725958675</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.262430477027101</v>
+        <v>16.62339174589442</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.64112442434257</v>
+        <v>19.15301867913571</v>
       </c>
       <c r="C24">
-        <v>23.39354257567384</v>
+        <v>12.64940717744131</v>
       </c>
       <c r="D24">
-        <v>2.535689065214219</v>
+        <v>4.874814325126434</v>
       </c>
       <c r="F24">
-        <v>36.65337009754592</v>
+        <v>30.65631325007728</v>
       </c>
       <c r="G24">
-        <v>2.005398963808948</v>
+        <v>3.619945260528337</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.846269158733351</v>
+        <v>16.75047084029043</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.39011279973351</v>
+        <v>17.93994020185811</v>
       </c>
       <c r="C25">
-        <v>21.00834757076406</v>
+        <v>11.56286823933709</v>
       </c>
       <c r="D25">
-        <v>2.792038024768843</v>
+        <v>4.93472405297923</v>
       </c>
       <c r="F25">
-        <v>33.37435385270629</v>
+        <v>30.00549372921323</v>
       </c>
       <c r="G25">
-        <v>2.02712949621843</v>
+        <v>3.626725719250617</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.47152882252951</v>
+        <v>16.89514544084691</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.00648322401483</v>
+        <v>25.82560918240267</v>
       </c>
       <c r="C2">
-        <v>10.69828057976813</v>
+        <v>19.12859321480409</v>
       </c>
       <c r="D2">
-        <v>4.981623389126059</v>
+        <v>2.982764810694267</v>
       </c>
       <c r="F2">
-        <v>29.55748212936986</v>
+        <v>30.96222913320513</v>
       </c>
       <c r="G2">
-        <v>3.632106957472635</v>
+        <v>2.043378572999085</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.00829988987423</v>
+        <v>10.93302481347345</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.35302150500121</v>
+        <v>23.97506736405812</v>
       </c>
       <c r="C3">
-        <v>10.07373862251478</v>
+        <v>17.77283301785674</v>
       </c>
       <c r="D3">
-        <v>5.015163060677339</v>
+        <v>3.11361282069029</v>
       </c>
       <c r="F3">
-        <v>29.27485066424385</v>
+        <v>29.32995827372427</v>
       </c>
       <c r="G3">
-        <v>3.635999053925908</v>
+        <v>2.054626028683835</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.08916981434259</v>
+        <v>11.24861171488622</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.94320722061095</v>
+        <v>22.78155841701192</v>
       </c>
       <c r="C4">
-        <v>9.672007426524317</v>
+        <v>16.89862946399142</v>
       </c>
       <c r="D4">
-        <v>5.036627821544934</v>
+        <v>3.194889314745528</v>
       </c>
       <c r="F4">
-        <v>29.11213250202849</v>
+        <v>28.33040990828194</v>
       </c>
       <c r="G4">
-        <v>3.638510617883818</v>
+        <v>2.061670981910809</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.14090347359768</v>
+        <v>11.44439492307028</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.77433220721966</v>
+        <v>22.280557053907</v>
       </c>
       <c r="C5">
-        <v>9.503855165650759</v>
+        <v>16.53169311695384</v>
       </c>
       <c r="D5">
-        <v>5.045594692439061</v>
+        <v>3.22826874933996</v>
       </c>
       <c r="F5">
-        <v>29.04860873339883</v>
+        <v>27.92409375886208</v>
       </c>
       <c r="G5">
-        <v>3.639564849794331</v>
+        <v>2.064579871875724</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.16251028206955</v>
+        <v>11.52476711502274</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.74618648666673</v>
+        <v>22.19647558172377</v>
       </c>
       <c r="C6">
-        <v>9.475670185097604</v>
+        <v>16.4701125737298</v>
       </c>
       <c r="D6">
-        <v>5.047096931502469</v>
+        <v>3.233827693195007</v>
       </c>
       <c r="F6">
-        <v>29.03823063079917</v>
+        <v>27.85669779476299</v>
       </c>
       <c r="G6">
-        <v>3.639741764937086</v>
+        <v>2.065065271681498</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.16612984142947</v>
+        <v>11.53815073346747</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.94093689466966</v>
+        <v>22.77486130038355</v>
       </c>
       <c r="C7">
-        <v>9.669757439146853</v>
+        <v>16.89372436305502</v>
       </c>
       <c r="D7">
-        <v>5.036747860997988</v>
+        <v>3.195338402994454</v>
       </c>
       <c r="F7">
-        <v>29.11126444106202</v>
+        <v>28.32492559201767</v>
       </c>
       <c r="G7">
-        <v>3.638524710963195</v>
+        <v>2.061710054428071</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.14119274249249</v>
+        <v>11.44547636079288</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.78311493440999</v>
+        <v>25.19928034150495</v>
       </c>
       <c r="C8">
-        <v>10.48680788211401</v>
+        <v>18.66967593842007</v>
       </c>
       <c r="D8">
-        <v>4.993007470704613</v>
+        <v>3.027700922851666</v>
       </c>
       <c r="F8">
-        <v>29.45782638496409</v>
+        <v>30.39903805002341</v>
       </c>
       <c r="G8">
-        <v>3.633423745760905</v>
+        <v>2.047229785245104</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.03575356874946</v>
+        <v>11.04147387055254</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.35532964234293</v>
+        <v>29.51088559758677</v>
       </c>
       <c r="C9">
-        <v>11.93908014991649</v>
+        <v>21.83030917358943</v>
       </c>
       <c r="D9">
-        <v>4.914112422918913</v>
+        <v>2.705413457930669</v>
       </c>
       <c r="F9">
-        <v>30.22009429542702</v>
+        <v>34.47841926152906</v>
       </c>
       <c r="G9">
-        <v>3.624381662019557</v>
+        <v>2.019782537104301</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.8453878117096</v>
+        <v>10.26104295011725</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.44907093696457</v>
+        <v>32.42693075288717</v>
       </c>
       <c r="C10">
-        <v>12.90946038661791</v>
+        <v>23.97054761811915</v>
       </c>
       <c r="D10">
-        <v>4.860294823979975</v>
+        <v>2.471529367516846</v>
       </c>
       <c r="F10">
-        <v>30.82584676095372</v>
+        <v>37.47956975598636</v>
       </c>
       <c r="G10">
-        <v>3.61831646158958</v>
+        <v>1.999952548523671</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.7153849479996</v>
+        <v>9.688416029121655</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.9310806596658</v>
+        <v>33.70349574171767</v>
       </c>
       <c r="C11">
-        <v>13.32920626576599</v>
+        <v>24.90837478753982</v>
       </c>
       <c r="D11">
-        <v>4.836702172633514</v>
+        <v>2.365718109535755</v>
       </c>
       <c r="F11">
-        <v>31.11025059025355</v>
+        <v>38.96906600056494</v>
       </c>
       <c r="G11">
-        <v>3.615681093220704</v>
+        <v>1.990940860821216</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.65835407118458</v>
+        <v>9.426430353277381</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.11121564355559</v>
+        <v>34.18015572456625</v>
       </c>
       <c r="C12">
-        <v>13.48499173400841</v>
+        <v>25.25871166879363</v>
       </c>
       <c r="D12">
-        <v>4.827895399106762</v>
+        <v>2.325755431284767</v>
       </c>
       <c r="F12">
-        <v>31.21912190702791</v>
+        <v>39.53494976502026</v>
       </c>
       <c r="G12">
-        <v>3.614700810709469</v>
+        <v>1.987523493922398</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.63705884414714</v>
+        <v>9.32685150836714</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.07252900139363</v>
+        <v>34.07779098644382</v>
       </c>
       <c r="C13">
-        <v>13.45158182982517</v>
+        <v>25.18346771054942</v>
       </c>
       <c r="D13">
-        <v>4.829786445533124</v>
+        <v>2.334356739452073</v>
       </c>
       <c r="F13">
-        <v>31.19562390108752</v>
+        <v>39.41313970541653</v>
       </c>
       <c r="G13">
-        <v>3.614911147873526</v>
+        <v>1.988259807675395</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.64163179150297</v>
+        <v>9.348316761176571</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.94594923111199</v>
+        <v>33.74284336702868</v>
       </c>
       <c r="C14">
-        <v>13.34208644354469</v>
+        <v>24.93729121620305</v>
       </c>
       <c r="D14">
-        <v>4.835975087272577</v>
+        <v>2.362428007409106</v>
       </c>
       <c r="F14">
-        <v>31.11918454425946</v>
+        <v>39.01565092664421</v>
       </c>
       <c r="G14">
-        <v>3.6156000912367</v>
+        <v>1.990659847322834</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.65659607648882</v>
+        <v>9.418246328683786</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.8680996986742</v>
+        <v>33.53681350008587</v>
       </c>
       <c r="C15">
-        <v>13.27460427167941</v>
+        <v>24.78588726806304</v>
       </c>
       <c r="D15">
-        <v>4.839782362750373</v>
+        <v>2.379637377468082</v>
       </c>
       <c r="F15">
-        <v>31.07251314252931</v>
+        <v>38.7719824935929</v>
       </c>
       <c r="G15">
-        <v>3.61602438719473</v>
+        <v>1.992129113457067</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.66580128929759</v>
+        <v>9.461027003221922</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.41724386712814</v>
+        <v>32.34253496668248</v>
       </c>
       <c r="C16">
-        <v>12.88158855374856</v>
+        <v>23.90856708344911</v>
       </c>
       <c r="D16">
-        <v>4.861854499707798</v>
+        <v>2.4784573819331</v>
       </c>
       <c r="F16">
-        <v>30.80742994257739</v>
+        <v>37.3902412523705</v>
       </c>
       <c r="G16">
-        <v>3.618491168721719</v>
+        <v>2.000541161074084</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.71915429785625</v>
+        <v>9.705494458648758</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.13655992847566</v>
+        <v>31.59738137831337</v>
       </c>
       <c r="C17">
-        <v>12.63489651152047</v>
+        <v>23.36142878179392</v>
       </c>
       <c r="D17">
-        <v>4.875622351408937</v>
+        <v>2.53923726983055</v>
       </c>
       <c r="F17">
-        <v>30.64700620415433</v>
+        <v>36.60774640818421</v>
       </c>
       <c r="G17">
-        <v>3.620036064226988</v>
+        <v>2.005699904696681</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.75242313772152</v>
+        <v>9.854979616134342</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.97366335134805</v>
+        <v>31.16405719634497</v>
       </c>
       <c r="C18">
-        <v>12.49096657409505</v>
+        <v>23.04333846519614</v>
       </c>
       <c r="D18">
-        <v>4.883624991723049</v>
+        <v>2.574248687669169</v>
       </c>
       <c r="F18">
-        <v>30.55557319952402</v>
+        <v>36.15792318404664</v>
       </c>
       <c r="G18">
-        <v>3.620936299497772</v>
+        <v>2.00866834709718</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.77175703677358</v>
+        <v>9.940829199760802</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.91826468025555</v>
+        <v>31.01651603000705</v>
       </c>
       <c r="C19">
-        <v>12.44188569004283</v>
+        <v>22.93504632835029</v>
       </c>
       <c r="D19">
-        <v>4.886348949117463</v>
+        <v>2.586111713068596</v>
       </c>
       <c r="F19">
-        <v>30.52476251221086</v>
+        <v>36.00565511166875</v>
       </c>
       <c r="G19">
-        <v>3.621243108535336</v>
+        <v>2.009673801786446</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.77833732390475</v>
+        <v>9.969878446815986</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.16659096433131</v>
+        <v>31.67719096426024</v>
       </c>
       <c r="C20">
-        <v>12.66136871051456</v>
+        <v>23.42002115841574</v>
       </c>
       <c r="D20">
-        <v>4.874148078263476</v>
+        <v>2.532761647919196</v>
       </c>
       <c r="F20">
-        <v>30.66399750730347</v>
+        <v>36.69101671391805</v>
       </c>
       <c r="G20">
-        <v>3.619870402347602</v>
+        <v>2.00515065793502</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.74886107913844</v>
+        <v>9.839081221010806</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.98319483523797</v>
+        <v>33.84140495840558</v>
       </c>
       <c r="C21">
-        <v>13.37433404466827</v>
+        <v>25.00972643542019</v>
       </c>
       <c r="D21">
-        <v>4.834153884482625</v>
+        <v>2.354179606386536</v>
       </c>
       <c r="F21">
-        <v>31.14160557266149</v>
+        <v>39.13244260917224</v>
       </c>
       <c r="G21">
-        <v>3.615397253123882</v>
+        <v>1.989955082203391</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.65219254671415</v>
+        <v>9.397717712864699</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.50289384205021</v>
+        <v>35.21676117730112</v>
       </c>
       <c r="C22">
-        <v>13.83805691341151</v>
+        <v>26.02092153627669</v>
       </c>
       <c r="D22">
-        <v>4.808756808346468</v>
+        <v>2.238116716251552</v>
       </c>
       <c r="F22">
-        <v>31.46054480438615</v>
+        <v>40.77711033961611</v>
       </c>
       <c r="G22">
-        <v>3.612576756872961</v>
+        <v>1.979992167931611</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.59076834824446</v>
+        <v>9.107014552203166</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.22684820232422</v>
+        <v>34.48612377271256</v>
       </c>
       <c r="C23">
-        <v>13.584701333171</v>
+        <v>25.48364119505436</v>
       </c>
       <c r="D23">
-        <v>4.822244065196632</v>
+        <v>2.29998648662806</v>
       </c>
       <c r="F23">
-        <v>31.28973211329585</v>
+        <v>39.89995989461155</v>
       </c>
       <c r="G23">
-        <v>3.614072725958675</v>
+        <v>1.985314740162947</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.62339174589442</v>
+        <v>9.26243047702701</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.15301867913571</v>
+        <v>31.64112442434261</v>
       </c>
       <c r="C24">
-        <v>12.64940717744131</v>
+        <v>23.39354257567381</v>
       </c>
       <c r="D24">
-        <v>4.874814325126434</v>
+        <v>2.535689065214274</v>
       </c>
       <c r="F24">
-        <v>30.65631325007728</v>
+        <v>36.65337009754587</v>
       </c>
       <c r="G24">
-        <v>3.619945260528337</v>
+        <v>2.00539896380895</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.75047084029043</v>
+        <v>9.846269158733381</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.93994020185811</v>
+        <v>28.39011279973344</v>
       </c>
       <c r="C25">
-        <v>11.56286823933709</v>
+        <v>21.00834757076418</v>
       </c>
       <c r="D25">
-        <v>4.93472405297923</v>
+        <v>2.792038024768972</v>
       </c>
       <c r="F25">
-        <v>30.00549372921323</v>
+        <v>33.37435385270621</v>
       </c>
       <c r="G25">
-        <v>3.626725719250617</v>
+        <v>2.027129496218564</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.89514544084691</v>
+        <v>10.4715288225295</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,844 +415,922 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.82560918240267</v>
+        <v>12.73447852564158</v>
       </c>
       <c r="C2">
-        <v>19.12859321480409</v>
+        <v>8.535077844260039</v>
       </c>
       <c r="D2">
-        <v>2.982764810694267</v>
+        <v>5.239184710309098</v>
       </c>
       <c r="F2">
-        <v>30.96222913320513</v>
+        <v>18.13643146060661</v>
       </c>
       <c r="G2">
-        <v>2.043378572999085</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>22.72617007269999</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.529713663196736</v>
+      </c>
+      <c r="J2">
+        <v>9.096469806633969</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>10.93302481347345</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.69308958912598</v>
+      </c>
+      <c r="M2">
+        <v>11.74827806517348</v>
+      </c>
+      <c r="P2">
+        <v>12.29213343164338</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.97506736405812</v>
+        <v>11.9037500497479</v>
       </c>
       <c r="C3">
-        <v>17.77283301785674</v>
+        <v>8.026834273562612</v>
       </c>
       <c r="D3">
-        <v>3.11361282069029</v>
+        <v>5.061329157538428</v>
       </c>
       <c r="F3">
-        <v>29.32995827372427</v>
+        <v>17.87886589183454</v>
       </c>
       <c r="G3">
-        <v>2.054626028683835</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>22.45272375198216</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.570707661546999</v>
+      </c>
+      <c r="J3">
+        <v>9.14962741117327</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>11.24861171488622</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.81752861723772</v>
+      </c>
+      <c r="M3">
+        <v>11.04943214808427</v>
+      </c>
+      <c r="P3">
+        <v>12.4488193596422</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.78155841701192</v>
+        <v>11.3607340052425</v>
       </c>
       <c r="C4">
-        <v>16.89862946399142</v>
+        <v>7.701638859744285</v>
       </c>
       <c r="D4">
-        <v>3.194889314745528</v>
+        <v>4.948786745666245</v>
       </c>
       <c r="F4">
-        <v>28.33040990828194</v>
+        <v>17.73036268725955</v>
       </c>
       <c r="G4">
-        <v>2.061670981910809</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>22.30008380073534</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.672270939092864</v>
+      </c>
+      <c r="J4">
+        <v>9.186157226628888</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>11.44439492307028</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.89902799580675</v>
+      </c>
+      <c r="M4">
+        <v>10.59645898994981</v>
+      </c>
+      <c r="P4">
+        <v>12.54737601707274</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.280557053907</v>
+        <v>11.12539812713787</v>
       </c>
       <c r="C5">
-        <v>16.53169311695384</v>
+        <v>7.572996403398474</v>
       </c>
       <c r="D5">
-        <v>3.22826874933996</v>
+        <v>4.903795227570138</v>
       </c>
       <c r="F5">
-        <v>27.92409375886208</v>
+        <v>17.66370619032445</v>
       </c>
       <c r="G5">
-        <v>2.064579871875724</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>22.22656134959003</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.717924243496135</v>
+      </c>
+      <c r="J5">
+        <v>9.199588559943038</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>11.52476711502274</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.92816040555251</v>
+      </c>
+      <c r="M5">
+        <v>10.4049937680913</v>
+      </c>
+      <c r="P5">
+        <v>12.58805240709291</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.19647558172377</v>
+        <v>11.07879927746738</v>
       </c>
       <c r="C6">
-        <v>16.4701125737298</v>
+        <v>7.560202971288535</v>
       </c>
       <c r="D6">
-        <v>3.233827693195007</v>
+        <v>4.898329033637048</v>
       </c>
       <c r="F6">
-        <v>27.85669779476299</v>
+        <v>17.64230643444886</v>
       </c>
       <c r="G6">
-        <v>2.065065271681498</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>22.19613050355598</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.729615376997948</v>
+      </c>
+      <c r="J6">
+        <v>9.198938406908548</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>11.53815073346747</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.9265755351092</v>
+      </c>
+      <c r="M6">
+        <v>10.37173423049642</v>
+      </c>
+      <c r="P6">
+        <v>12.5947471936139</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.77486130038355</v>
+        <v>11.33887529139247</v>
       </c>
       <c r="C7">
-        <v>16.89372436305502</v>
+        <v>7.723346470857297</v>
       </c>
       <c r="D7">
-        <v>3.195338402994454</v>
+        <v>4.953747042010543</v>
       </c>
       <c r="F7">
-        <v>28.32492559201767</v>
+        <v>17.70097134484554</v>
       </c>
       <c r="G7">
-        <v>2.061710054428071</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>22.24887889273337</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.683606711196332</v>
+      </c>
+      <c r="J7">
+        <v>9.178316586677912</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>11.44547636079288</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.88165501800626</v>
+      </c>
+      <c r="M7">
+        <v>10.59093711948384</v>
+      </c>
+      <c r="P7">
+        <v>12.54773336377317</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19928034150495</v>
+        <v>12.43197746112257</v>
       </c>
       <c r="C8">
-        <v>18.66967593842007</v>
+        <v>8.39142503856783</v>
       </c>
       <c r="D8">
-        <v>3.027700922851666</v>
+        <v>5.185742395381795</v>
       </c>
       <c r="F8">
-        <v>30.39903805002341</v>
+        <v>18.00864635462139</v>
       </c>
       <c r="G8">
-        <v>2.047229785245104</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>22.56331836790351</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.48051467699844</v>
+      </c>
+      <c r="J8">
+        <v>9.103379978815015</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>11.04147387055254</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.71136056708152</v>
+      </c>
+      <c r="M8">
+        <v>11.5086288456449</v>
+      </c>
+      <c r="P8">
+        <v>12.34575852749228</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.51088559758677</v>
+        <v>14.34536824907009</v>
       </c>
       <c r="C9">
-        <v>21.83030917358943</v>
+        <v>9.559220320102584</v>
       </c>
       <c r="D9">
-        <v>2.705413457930669</v>
+        <v>5.603264016976774</v>
       </c>
       <c r="F9">
-        <v>34.47841926152906</v>
+        <v>18.73786023702684</v>
       </c>
       <c r="G9">
-        <v>2.019782537104301</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>23.39163305609879</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.845593238964021</v>
+      </c>
+      <c r="J9">
+        <v>9.003098085145758</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>10.26104295011725</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.45172855985931</v>
+      </c>
+      <c r="M9">
+        <v>13.12265284529044</v>
+      </c>
+      <c r="P9">
+        <v>11.96774145555089</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.42693075288717</v>
+        <v>15.58728783226324</v>
       </c>
       <c r="C10">
-        <v>23.97054761811915</v>
+        <v>10.36307826373441</v>
       </c>
       <c r="D10">
-        <v>2.471529367516846</v>
+        <v>5.894081632056208</v>
       </c>
       <c r="F10">
-        <v>37.47956975598636</v>
+        <v>19.30587694487469</v>
       </c>
       <c r="G10">
-        <v>1.999952548523671</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>24.05480410777131</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.103324736217142</v>
+      </c>
+      <c r="J10">
+        <v>8.947330047382716</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>9.688416029121655</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.28101110765207</v>
+      </c>
+      <c r="M10">
+        <v>14.1907877137326</v>
+      </c>
+      <c r="P10">
+        <v>11.70102512850901</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.70349574171767</v>
+        <v>16.09680486844683</v>
       </c>
       <c r="C11">
-        <v>24.90837478753982</v>
+        <v>10.74322998763951</v>
       </c>
       <c r="D11">
-        <v>2.365718109535755</v>
+        <v>6.030044784080993</v>
       </c>
       <c r="F11">
-        <v>38.96906600056494</v>
+        <v>19.53232939736093</v>
       </c>
       <c r="G11">
-        <v>1.990940860821216</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>24.29998133947629</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.222337524738985</v>
+      </c>
+      <c r="J11">
+        <v>8.914201230832084</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>9.426430353277381</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.18099529601758</v>
+      </c>
+      <c r="M11">
+        <v>14.64787558345941</v>
+      </c>
+      <c r="P11">
+        <v>11.58332922270792</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.18015572456625</v>
+        <v>16.29720596451331</v>
       </c>
       <c r="C12">
-        <v>25.25871166879363</v>
+        <v>10.86963199056034</v>
       </c>
       <c r="D12">
-        <v>2.325755431284767</v>
+        <v>6.076594596913466</v>
       </c>
       <c r="F12">
-        <v>39.53494976502026</v>
+        <v>19.64194153545603</v>
       </c>
       <c r="G12">
-        <v>1.987523493922398</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>24.43530415761056</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.264878020644278</v>
+      </c>
+      <c r="J12">
+        <v>8.909373266073912</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>9.32685150836714</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.15976905558258</v>
+      </c>
+      <c r="M12">
+        <v>14.81935808862231</v>
+      </c>
+      <c r="P12">
+        <v>11.53844423649869</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.07779098644382</v>
+        <v>16.25664284813687</v>
       </c>
       <c r="C13">
-        <v>25.18346771054942</v>
+        <v>10.83944738741422</v>
       </c>
       <c r="D13">
-        <v>2.334356739452073</v>
+        <v>6.065744670592959</v>
       </c>
       <c r="F13">
-        <v>39.41313970541653</v>
+        <v>19.62273588460369</v>
       </c>
       <c r="G13">
-        <v>1.988259807675395</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>24.41397206395909</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.25523350895971</v>
+      </c>
+      <c r="J13">
+        <v>8.91176723987013</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>9.348316761176571</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.16742714556873</v>
+      </c>
+      <c r="M13">
+        <v>14.78297871429671</v>
+      </c>
+      <c r="P13">
+        <v>11.54795157604321</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.74284336702868</v>
+        <v>16.11440864240039</v>
       </c>
       <c r="C14">
-        <v>24.93729121620305</v>
+        <v>10.75236303135336</v>
       </c>
       <c r="D14">
-        <v>2.362428007409106</v>
+        <v>6.033523293742356</v>
       </c>
       <c r="F14">
-        <v>39.01565092664421</v>
+        <v>19.54322300075869</v>
       </c>
       <c r="G14">
-        <v>1.990659847322834</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>24.31444357818929</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.225624478600078</v>
+      </c>
+      <c r="J14">
+        <v>8.914378570718615</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>9.418246328683786</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.1805581945956</v>
+      </c>
+      <c r="M14">
+        <v>14.66222354341629</v>
+      </c>
+      <c r="P14">
+        <v>11.57956993932279</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.53681350008587</v>
+        <v>16.02189608161016</v>
       </c>
       <c r="C15">
-        <v>24.78588726806304</v>
+        <v>10.70486471620363</v>
       </c>
       <c r="D15">
-        <v>2.379637377468082</v>
+        <v>6.015398308061946</v>
       </c>
       <c r="F15">
-        <v>38.7719824935929</v>
+        <v>19.48584073521085</v>
       </c>
       <c r="G15">
-        <v>1.992129113457067</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>24.23808216871607</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.20853349345044</v>
+      </c>
+      <c r="J15">
+        <v>8.913344601891456</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>9.461027003221922</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.18257911343041</v>
+      </c>
+      <c r="M15">
+        <v>14.58700525496562</v>
+      </c>
+      <c r="P15">
+        <v>11.59925158104525</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34253496668248</v>
+        <v>15.51219553970724</v>
       </c>
       <c r="C16">
-        <v>23.90856708344911</v>
+        <v>10.39045875489406</v>
       </c>
       <c r="D16">
-        <v>2.4784573819331</v>
+        <v>5.899545963748527</v>
       </c>
       <c r="F16">
-        <v>37.3902412523705</v>
+        <v>19.21584241674907</v>
       </c>
       <c r="G16">
-        <v>2.000541161074084</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>23.90519231702947</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.103553769480011</v>
+      </c>
+      <c r="J16">
+        <v>8.926495588609521</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>9.705494458648758</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.23573817748601</v>
+      </c>
+      <c r="M16">
+        <v>14.1536788939376</v>
+      </c>
+      <c r="P16">
+        <v>11.71082407678303</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.59738137831337</v>
+        <v>15.19093262064466</v>
       </c>
       <c r="C17">
-        <v>23.36142878179392</v>
+        <v>10.19414253624185</v>
       </c>
       <c r="D17">
-        <v>2.53923726983055</v>
+        <v>5.827345215585334</v>
       </c>
       <c r="F17">
-        <v>36.60774640818421</v>
+        <v>19.05280481182247</v>
       </c>
       <c r="G17">
-        <v>2.005699904696681</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>23.70572202055889</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.038780745793061</v>
+      </c>
+      <c r="J17">
+        <v>8.93603568669084</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>9.854979616134342</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.27043912712869</v>
+      </c>
+      <c r="M17">
+        <v>13.88140064614978</v>
+      </c>
+      <c r="P17">
+        <v>11.77978925125409</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16405719634497</v>
+        <v>15.01581911286611</v>
       </c>
       <c r="C18">
-        <v>23.04333846519614</v>
+        <v>10.06356307434896</v>
       </c>
       <c r="D18">
-        <v>2.574248687669169</v>
+        <v>5.780962220575253</v>
       </c>
       <c r="F18">
-        <v>36.15792318404664</v>
+        <v>18.98315049280908</v>
       </c>
       <c r="G18">
-        <v>2.00866834709718</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>23.63382781661412</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.997954588271246</v>
+      </c>
+      <c r="J18">
+        <v>8.94904393352418</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>9.940829199760802</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.30679830021275</v>
+      </c>
+      <c r="M18">
+        <v>13.72451226549923</v>
+      </c>
+      <c r="P18">
+        <v>11.8190770873535</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01651603000705</v>
+        <v>14.94610653228181</v>
       </c>
       <c r="C19">
-        <v>22.93504632835029</v>
+        <v>10.03174901960712</v>
       </c>
       <c r="D19">
-        <v>2.586111713068596</v>
+        <v>5.768612459350783</v>
       </c>
       <c r="F19">
-        <v>36.00565511166875</v>
+        <v>18.94189453906564</v>
       </c>
       <c r="G19">
-        <v>2.009673801786446</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>23.57812473255369</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.98666486389349</v>
+      </c>
+      <c r="J19">
+        <v>8.948141944670105</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>9.969878446815986</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.30715266441576</v>
+      </c>
+      <c r="M19">
+        <v>13.66937446962916</v>
+      </c>
+      <c r="P19">
+        <v>11.83285663861767</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.67719096426024</v>
+        <v>15.22645409356123</v>
       </c>
       <c r="C20">
-        <v>23.42002115841574</v>
+        <v>10.21390001858513</v>
       </c>
       <c r="D20">
-        <v>2.532761647919196</v>
+        <v>5.834726766722709</v>
       </c>
       <c r="F20">
-        <v>36.69101671391805</v>
+        <v>19.07186776967335</v>
       </c>
       <c r="G20">
-        <v>2.00515065793502</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>23.72998289288784</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.045417595472589</v>
+      </c>
+      <c r="J20">
+        <v>8.93551400017896</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>9.839081221010806</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.26789673744442</v>
+      </c>
+      <c r="M20">
+        <v>13.91079302807633</v>
+      </c>
+      <c r="P20">
+        <v>11.77238009077174</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.84140495840558</v>
+        <v>16.14288603981151</v>
       </c>
       <c r="C21">
-        <v>25.00972643542019</v>
+        <v>10.79516125447222</v>
       </c>
       <c r="D21">
-        <v>2.354179606386536</v>
+        <v>6.047800361015645</v>
       </c>
       <c r="F21">
-        <v>39.13244260917224</v>
+        <v>19.54147253003814</v>
       </c>
       <c r="G21">
-        <v>1.989955082203391</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>24.29908315594326</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.237407937489999</v>
+      </c>
+      <c r="J21">
+        <v>8.905792700970883</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>9.397717712864699</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.15910440180245</v>
+      </c>
+      <c r="M21">
+        <v>14.69558394493822</v>
+      </c>
+      <c r="P21">
+        <v>11.57108953513525</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.21676117730112</v>
+        <v>16.73096660725151</v>
       </c>
       <c r="C22">
-        <v>26.02092153627669</v>
+        <v>11.14207739386078</v>
       </c>
       <c r="D22">
-        <v>2.238116716251552</v>
+        <v>6.177211766498916</v>
       </c>
       <c r="F22">
-        <v>40.77711033961611</v>
+        <v>19.88852408765518</v>
       </c>
       <c r="G22">
-        <v>1.979992167931611</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>24.74298290789887</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.35764473998475</v>
+      </c>
+      <c r="J22">
+        <v>8.901267785010432</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>9.107014552203166</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.11744319810767</v>
+      </c>
+      <c r="M22">
+        <v>15.19025157747901</v>
+      </c>
+      <c r="P22">
+        <v>11.44015306211565</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.48612377271256</v>
+        <v>16.4356685031076</v>
       </c>
       <c r="C23">
-        <v>25.48364119505436</v>
+        <v>10.93745278550814</v>
       </c>
       <c r="D23">
-        <v>2.29998648662806</v>
+        <v>6.102743721990573</v>
       </c>
       <c r="F23">
-        <v>39.89995989461155</v>
+        <v>19.7326156738757</v>
       </c>
       <c r="G23">
-        <v>1.985314740162947</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>24.5580652732756</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.290294006755627</v>
+      </c>
+      <c r="J23">
+        <v>8.912607192411484</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>9.26243047702701</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.16020551730588</v>
+      </c>
+      <c r="M23">
+        <v>14.93079531422485</v>
+      </c>
+      <c r="P23">
+        <v>11.50888453376665</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.64112442434261</v>
+        <v>15.23725641816484</v>
       </c>
       <c r="C24">
-        <v>23.39354257567381</v>
+        <v>10.17068496113015</v>
       </c>
       <c r="D24">
-        <v>2.535689065214274</v>
+        <v>5.822043400599631</v>
       </c>
       <c r="F24">
-        <v>36.65337009754587</v>
+        <v>19.11199860148634</v>
       </c>
       <c r="G24">
-        <v>2.00539896380895</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>23.80555242056642</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.036204215417563</v>
+      </c>
+      <c r="J24">
+        <v>8.950556640269864</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>9.846269158733381</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.30225409925377</v>
+      </c>
+      <c r="M24">
+        <v>13.90189597777534</v>
+      </c>
+      <c r="P24">
+        <v>11.77448201742388</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.39011279973344</v>
+        <v>13.82712810146395</v>
       </c>
       <c r="C25">
-        <v>21.00834757076418</v>
+        <v>9.290402248089084</v>
       </c>
       <c r="D25">
-        <v>2.792038024768972</v>
+        <v>5.50287737296695</v>
       </c>
       <c r="F25">
-        <v>33.37435385270621</v>
+        <v>18.48357916883404</v>
       </c>
       <c r="G25">
-        <v>2.027129496218564</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>23.0672472221424</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.753766883713389</v>
+      </c>
+      <c r="J25">
+        <v>9.012117486036022</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>10.4715288225295</v>
-      </c>
-      <c r="O25">
+        <v>13.48489046494248</v>
+      </c>
+      <c r="M25">
+        <v>12.7019034262582</v>
+      </c>
+      <c r="P25">
+        <v>12.06880527020859</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,916 +421,1066 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.73447852564158</v>
+        <v>12.53710736344945</v>
       </c>
       <c r="C2">
-        <v>8.535077844260039</v>
+        <v>8.696155492583312</v>
       </c>
       <c r="D2">
-        <v>5.239184710309098</v>
+        <v>5.298234446245071</v>
       </c>
       <c r="F2">
-        <v>18.13643146060661</v>
+        <v>17.63001135901218</v>
       </c>
       <c r="G2">
-        <v>22.72617007269999</v>
+        <v>21.23848874671939</v>
       </c>
       <c r="I2">
-        <v>2.529713663196736</v>
+        <v>2.59919639068819</v>
       </c>
       <c r="J2">
-        <v>9.096469806633969</v>
+        <v>9.339701644183267</v>
       </c>
       <c r="K2">
-        <v>13.69308958912598</v>
+        <v>13.23999173961771</v>
+      </c>
+      <c r="L2">
+        <v>11.53829286225007</v>
       </c>
       <c r="M2">
-        <v>11.74827806517348</v>
-      </c>
-      <c r="P2">
-        <v>12.29213343164338</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>8.049052892268307</v>
+      </c>
+      <c r="O2">
+        <v>11.72015304522374</v>
+      </c>
+      <c r="R2">
+        <v>12.22599128485359</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.9037500497479</v>
+        <v>11.76189566639993</v>
       </c>
       <c r="C3">
-        <v>8.026834273562612</v>
+        <v>8.1170829289024</v>
       </c>
       <c r="D3">
-        <v>5.061329157538428</v>
+        <v>5.09545694976902</v>
       </c>
       <c r="F3">
-        <v>17.87886589183454</v>
+        <v>17.42580426874597</v>
       </c>
       <c r="G3">
-        <v>22.45272375198216</v>
+        <v>21.08806043261917</v>
       </c>
       <c r="I3">
-        <v>2.570707661546999</v>
+        <v>2.483185751393013</v>
       </c>
       <c r="J3">
-        <v>9.14962741117327</v>
+        <v>9.36626447290641</v>
       </c>
       <c r="K3">
-        <v>13.81752861723772</v>
+        <v>13.3841849431191</v>
+      </c>
+      <c r="L3">
+        <v>11.71239896779981</v>
       </c>
       <c r="M3">
-        <v>11.04943214808427</v>
-      </c>
-      <c r="P3">
-        <v>12.4488193596422</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>8.111948345272637</v>
+      </c>
+      <c r="O3">
+        <v>11.0360913680349</v>
+      </c>
+      <c r="R3">
+        <v>12.3635843573595</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.3607340052425</v>
+        <v>11.25517916844452</v>
       </c>
       <c r="C4">
-        <v>7.701638859744285</v>
+        <v>7.745541768377687</v>
       </c>
       <c r="D4">
-        <v>4.948786745666245</v>
+        <v>4.967016235745884</v>
       </c>
       <c r="F4">
-        <v>17.73036268725955</v>
+        <v>17.30821776647662</v>
       </c>
       <c r="G4">
-        <v>22.30008380073534</v>
+        <v>21.01223123926835</v>
       </c>
       <c r="I4">
-        <v>2.672270939092864</v>
+        <v>2.571679134664884</v>
       </c>
       <c r="J4">
-        <v>9.186157226628888</v>
+        <v>9.384154485058536</v>
       </c>
       <c r="K4">
-        <v>13.89902799580675</v>
+        <v>13.47614763107076</v>
+      </c>
+      <c r="L4">
+        <v>11.82204343134283</v>
       </c>
       <c r="M4">
-        <v>10.59645898994981</v>
-      </c>
-      <c r="P4">
-        <v>12.54737601707274</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.171119452107401</v>
+      </c>
+      <c r="O4">
+        <v>10.59271640721047</v>
+      </c>
+      <c r="R4">
+        <v>12.45071578853018</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.12539812713787</v>
+        <v>11.03539807458653</v>
       </c>
       <c r="C5">
-        <v>7.572996403398474</v>
+        <v>7.59747012354457</v>
       </c>
       <c r="D5">
-        <v>4.903795227570138</v>
+        <v>4.915414436444621</v>
       </c>
       <c r="F5">
-        <v>17.66370619032445</v>
+        <v>17.25390449732474</v>
       </c>
       <c r="G5">
-        <v>22.22656134959003</v>
+        <v>20.9705180113671</v>
       </c>
       <c r="I5">
-        <v>2.717924243496135</v>
+        <v>2.612496636890073</v>
       </c>
       <c r="J5">
-        <v>9.199588559943038</v>
+        <v>9.38948593693088</v>
       </c>
       <c r="K5">
-        <v>13.92816040555251</v>
+        <v>13.50943851812691</v>
+      </c>
+      <c r="L5">
+        <v>11.86257249034174</v>
       </c>
       <c r="M5">
-        <v>10.4049937680913</v>
-      </c>
-      <c r="P5">
-        <v>12.58805240709291</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.19766059683367</v>
+      </c>
+      <c r="O5">
+        <v>10.40533360778191</v>
+      </c>
+      <c r="R5">
+        <v>12.4869087724975</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.07879927746738</v>
+        <v>10.99165128405705</v>
       </c>
       <c r="C6">
-        <v>7.560202971288535</v>
+        <v>7.581619068231804</v>
       </c>
       <c r="D6">
-        <v>4.898329033637048</v>
+        <v>4.908850656697139</v>
       </c>
       <c r="F6">
-        <v>17.64230643444886</v>
+        <v>17.2348108064204</v>
       </c>
       <c r="G6">
-        <v>22.19613050355598</v>
+        <v>20.94573398219548</v>
       </c>
       <c r="I6">
-        <v>2.729615376997948</v>
+        <v>2.62409051750477</v>
       </c>
       <c r="J6">
-        <v>9.198938406908548</v>
+        <v>9.387526658275682</v>
       </c>
       <c r="K6">
-        <v>13.9265755351092</v>
+        <v>13.5088847516781</v>
+      </c>
+      <c r="L6">
+        <v>11.86343557517051</v>
       </c>
       <c r="M6">
-        <v>10.37173423049642</v>
-      </c>
-      <c r="P6">
-        <v>12.5947471936139</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.199156046548886</v>
+      </c>
+      <c r="O6">
+        <v>10.37280070346117</v>
+      </c>
+      <c r="R6">
+        <v>12.49299202086505</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.33887529139247</v>
+        <v>11.22992199857276</v>
       </c>
       <c r="C7">
-        <v>7.723346470857297</v>
+        <v>7.757352512094087</v>
       </c>
       <c r="D7">
-        <v>4.953747042010543</v>
+        <v>4.97566550093577</v>
       </c>
       <c r="F7">
-        <v>17.70097134484554</v>
+        <v>17.26213133809253</v>
       </c>
       <c r="G7">
-        <v>22.24887889273337</v>
+        <v>21.031094939442</v>
       </c>
       <c r="I7">
-        <v>2.683606711196332</v>
+        <v>2.58547207845449</v>
       </c>
       <c r="J7">
-        <v>9.178316586677912</v>
+        <v>9.341434870711044</v>
       </c>
       <c r="K7">
-        <v>13.88165501800626</v>
+        <v>13.45292802059082</v>
+      </c>
+      <c r="L7">
+        <v>11.80031248083078</v>
       </c>
       <c r="M7">
-        <v>10.59093711948384</v>
-      </c>
-      <c r="P7">
-        <v>12.54773336377317</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.15828657233253</v>
+      </c>
+      <c r="O7">
+        <v>10.58131473250493</v>
+      </c>
+      <c r="R7">
+        <v>12.45161328964599</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.43197746112257</v>
+        <v>12.24105336828675</v>
       </c>
       <c r="C8">
-        <v>8.39142503856783</v>
+        <v>8.497902981531158</v>
       </c>
       <c r="D8">
-        <v>5.185742395381795</v>
+        <v>5.248475094686053</v>
       </c>
       <c r="F8">
-        <v>18.00864635462139</v>
+        <v>17.4645499458642</v>
       </c>
       <c r="G8">
-        <v>22.56331836790351</v>
+        <v>21.34613882168441</v>
       </c>
       <c r="I8">
-        <v>2.48051467699844</v>
+        <v>2.555933182853677</v>
       </c>
       <c r="J8">
-        <v>9.103379978815015</v>
+        <v>9.224142052270331</v>
       </c>
       <c r="K8">
-        <v>13.71136056708152</v>
+        <v>13.24424802626196</v>
+      </c>
+      <c r="L8">
+        <v>11.55928794675488</v>
       </c>
       <c r="M8">
-        <v>11.5086288456449</v>
-      </c>
-      <c r="P8">
-        <v>12.34575852749228</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>8.036503366754182</v>
+      </c>
+      <c r="O8">
+        <v>11.46693702698183</v>
+      </c>
+      <c r="R8">
+        <v>12.27487015105557</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.34536824907009</v>
+        <v>14.02522614784537</v>
       </c>
       <c r="C9">
-        <v>9.559220320102584</v>
+        <v>9.821865731592847</v>
       </c>
       <c r="D9">
-        <v>5.603264016976774</v>
+        <v>5.726913897248799</v>
       </c>
       <c r="F9">
-        <v>18.73786023702684</v>
+        <v>18.03739322234708</v>
       </c>
       <c r="G9">
-        <v>23.39163305609879</v>
+        <v>21.93346995016416</v>
       </c>
       <c r="I9">
-        <v>2.845593238964021</v>
+        <v>2.872983682398299</v>
       </c>
       <c r="J9">
-        <v>9.003098085145758</v>
+        <v>9.144748618256481</v>
       </c>
       <c r="K9">
-        <v>13.45172855985931</v>
+        <v>12.91796684538535</v>
+      </c>
+      <c r="L9">
+        <v>11.15668217825792</v>
       </c>
       <c r="M9">
-        <v>13.12265284529044</v>
-      </c>
-      <c r="P9">
-        <v>11.96774145555089</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>7.999542430712267</v>
+      </c>
+      <c r="O9">
+        <v>13.04392376514748</v>
+      </c>
+      <c r="R9">
+        <v>11.9474230259338</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.58728783226324</v>
+        <v>15.16329138231399</v>
       </c>
       <c r="C10">
-        <v>10.36307826373441</v>
+        <v>10.68144136304353</v>
       </c>
       <c r="D10">
-        <v>5.894081632056208</v>
+        <v>6.078255798621057</v>
       </c>
       <c r="F10">
-        <v>19.30587694487469</v>
+        <v>18.38991517441732</v>
       </c>
       <c r="G10">
-        <v>24.05480410777131</v>
+        <v>22.81725882268571</v>
       </c>
       <c r="I10">
-        <v>3.103324736217142</v>
+        <v>3.095165361936865</v>
       </c>
       <c r="J10">
-        <v>8.947330047382716</v>
+        <v>8.899170659724859</v>
       </c>
       <c r="K10">
-        <v>13.28101110765207</v>
+        <v>12.64958696557997</v>
+      </c>
+      <c r="L10">
+        <v>10.84198157856276</v>
       </c>
       <c r="M10">
-        <v>14.1907877137326</v>
-      </c>
-      <c r="P10">
-        <v>11.70102512850901</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>8.034992923378734</v>
+      </c>
+      <c r="O10">
+        <v>14.05944319894727</v>
+      </c>
+      <c r="R10">
+        <v>11.7251709013187</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.09680486844683</v>
+        <v>15.5964947229834</v>
       </c>
       <c r="C11">
-        <v>10.74322998763951</v>
+        <v>11.00784558889596</v>
       </c>
       <c r="D11">
-        <v>6.030044784080993</v>
+        <v>6.274645471228804</v>
       </c>
       <c r="F11">
-        <v>19.53232939736093</v>
+        <v>18.35360159375924</v>
       </c>
       <c r="G11">
-        <v>24.29998133947629</v>
+        <v>23.84523289450278</v>
       </c>
       <c r="I11">
-        <v>3.222337524738985</v>
+        <v>3.195579472228847</v>
       </c>
       <c r="J11">
-        <v>8.914201230832084</v>
+        <v>8.472747075010499</v>
       </c>
       <c r="K11">
-        <v>13.18099529601758</v>
+        <v>12.43640525333555</v>
+      </c>
+      <c r="L11">
+        <v>10.64310683974659</v>
       </c>
       <c r="M11">
-        <v>14.64787558345941</v>
-      </c>
-      <c r="P11">
-        <v>11.58332922270792</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.983608173572169</v>
+      </c>
+      <c r="O11">
+        <v>14.44680155675696</v>
+      </c>
+      <c r="R11">
+        <v>11.63968082648663</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.29720596451331</v>
+        <v>15.76433137784348</v>
       </c>
       <c r="C12">
-        <v>10.86963199056034</v>
+        <v>11.10487979653516</v>
       </c>
       <c r="D12">
-        <v>6.076594596913466</v>
+        <v>6.348013009954875</v>
       </c>
       <c r="F12">
-        <v>19.64194153545603</v>
+        <v>18.34237159874821</v>
       </c>
       <c r="G12">
-        <v>24.43530415761056</v>
+        <v>24.36290058441819</v>
       </c>
       <c r="I12">
-        <v>3.264878020644278</v>
+        <v>3.229736111835141</v>
       </c>
       <c r="J12">
-        <v>8.909373266073912</v>
+        <v>8.29313954330453</v>
       </c>
       <c r="K12">
-        <v>13.15976905558258</v>
+        <v>12.36128378807424</v>
+      </c>
+      <c r="L12">
+        <v>10.57302708924642</v>
       </c>
       <c r="M12">
-        <v>14.81935808862231</v>
-      </c>
-      <c r="P12">
-        <v>11.53844423649869</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>7.970543588154423</v>
+      </c>
+      <c r="O12">
+        <v>14.58664195536647</v>
+      </c>
+      <c r="R12">
+        <v>11.60820638894797</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.25664284813687</v>
+        <v>15.73085314073287</v>
       </c>
       <c r="C13">
-        <v>10.83944738741422</v>
+        <v>11.08138891052595</v>
       </c>
       <c r="D13">
-        <v>6.065744670592959</v>
+        <v>6.331199403711654</v>
       </c>
       <c r="F13">
-        <v>19.62273588460369</v>
+        <v>18.34992018352525</v>
       </c>
       <c r="G13">
-        <v>24.41397206395909</v>
+        <v>24.25524906067183</v>
       </c>
       <c r="I13">
-        <v>3.25523350895971</v>
+        <v>3.221702051188675</v>
       </c>
       <c r="J13">
-        <v>8.91176723987013</v>
+        <v>8.33352737720581</v>
       </c>
       <c r="K13">
-        <v>13.16742714556873</v>
+        <v>12.38055650617252</v>
+      </c>
+      <c r="L13">
+        <v>10.58997869006963</v>
       </c>
       <c r="M13">
-        <v>14.78297871429671</v>
-      </c>
-      <c r="P13">
-        <v>11.54795157604321</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.976187041685994</v>
+      </c>
+      <c r="O13">
+        <v>14.55728869678862</v>
+      </c>
+      <c r="R13">
+        <v>11.61456091888255</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.11440864240039</v>
+        <v>15.61145346856191</v>
       </c>
       <c r="C14">
-        <v>10.75236303135336</v>
+        <v>11.01472818486457</v>
       </c>
       <c r="D14">
-        <v>6.033523293742356</v>
+        <v>6.280246629473267</v>
       </c>
       <c r="F14">
-        <v>19.54322300075869</v>
+        <v>18.35488699475329</v>
       </c>
       <c r="G14">
-        <v>24.31444357818929</v>
+        <v>23.88936255987641</v>
       </c>
       <c r="I14">
-        <v>3.225624478600078</v>
+        <v>3.198093265370369</v>
       </c>
       <c r="J14">
-        <v>8.914378570718615</v>
+        <v>8.458769957429432</v>
       </c>
       <c r="K14">
-        <v>13.1805581945956</v>
+        <v>12.43155415667926</v>
+      </c>
+      <c r="L14">
+        <v>10.63814909591534</v>
       </c>
       <c r="M14">
-        <v>14.66222354341629</v>
-      </c>
-      <c r="P14">
-        <v>11.57956993932279</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>7.983738459841145</v>
+      </c>
+      <c r="O14">
+        <v>14.45864219888486</v>
+      </c>
+      <c r="R14">
+        <v>11.63691475885615</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.02189608161016</v>
+        <v>15.53264808498276</v>
       </c>
       <c r="C15">
-        <v>10.70486471620363</v>
+        <v>10.97864986452575</v>
       </c>
       <c r="D15">
-        <v>6.015398308061946</v>
+        <v>6.251181479783476</v>
       </c>
       <c r="F15">
-        <v>19.48584073521085</v>
+        <v>18.34693309423274</v>
       </c>
       <c r="G15">
-        <v>24.23808216871607</v>
+        <v>23.66140676209861</v>
       </c>
       <c r="I15">
-        <v>3.20853349345044</v>
+        <v>3.185062399582232</v>
       </c>
       <c r="J15">
-        <v>8.913344601891456</v>
+        <v>8.530836737034232</v>
       </c>
       <c r="K15">
-        <v>13.18257911343041</v>
+        <v>12.45629901522062</v>
+      </c>
+      <c r="L15">
+        <v>10.66371369382916</v>
       </c>
       <c r="M15">
-        <v>14.58700525496562</v>
-      </c>
-      <c r="P15">
-        <v>11.59925158104525</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>7.982561368507968</v>
+      </c>
+      <c r="O15">
+        <v>14.39632945629981</v>
+      </c>
+      <c r="R15">
+        <v>11.65148806446051</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.51219553970724</v>
+        <v>15.0939822481956</v>
       </c>
       <c r="C16">
-        <v>10.39045875489406</v>
+        <v>10.71167041745092</v>
       </c>
       <c r="D16">
-        <v>5.899545963748527</v>
+        <v>6.080378025456819</v>
       </c>
       <c r="F16">
-        <v>19.21584241674907</v>
+        <v>18.31721073099201</v>
       </c>
       <c r="G16">
-        <v>23.90519231702947</v>
+        <v>22.63019442700505</v>
       </c>
       <c r="I16">
-        <v>3.103553769480011</v>
+        <v>3.099873648976162</v>
       </c>
       <c r="J16">
-        <v>8.926495588609521</v>
+        <v>8.903440806490105</v>
       </c>
       <c r="K16">
-        <v>13.23573817748601</v>
+        <v>12.61616976269148</v>
+      </c>
+      <c r="L16">
+        <v>10.82376472122741</v>
       </c>
       <c r="M16">
-        <v>14.1536788939376</v>
-      </c>
-      <c r="P16">
-        <v>11.71082407678303</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>7.996056696169278</v>
+      </c>
+      <c r="O16">
+        <v>14.02642481043915</v>
+      </c>
+      <c r="R16">
+        <v>11.73528921609782</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.19093262064466</v>
+        <v>14.8103643779074</v>
       </c>
       <c r="C17">
-        <v>10.19414253624185</v>
+        <v>10.5283268157036</v>
       </c>
       <c r="D17">
-        <v>5.827345215585334</v>
+        <v>5.981348001343079</v>
       </c>
       <c r="F17">
-        <v>19.05280481182247</v>
+        <v>18.26612099430405</v>
       </c>
       <c r="G17">
-        <v>23.70572202055889</v>
+        <v>22.15018839367292</v>
       </c>
       <c r="I17">
-        <v>3.038780745793061</v>
+        <v>3.04646664682842</v>
       </c>
       <c r="J17">
-        <v>8.93603568669084</v>
+        <v>9.074314160601183</v>
       </c>
       <c r="K17">
-        <v>13.27043912712869</v>
+        <v>12.70041248602353</v>
+      </c>
+      <c r="L17">
+        <v>10.91434445974877</v>
       </c>
       <c r="M17">
-        <v>13.88140064614978</v>
-      </c>
-      <c r="P17">
-        <v>11.77978925125409</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>7.995256132700229</v>
+      </c>
+      <c r="O17">
+        <v>13.78373613825573</v>
+      </c>
+      <c r="R17">
+        <v>11.78991617756358</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.01581911286611</v>
+        <v>14.65431401265836</v>
       </c>
       <c r="C18">
-        <v>10.06356307434896</v>
+        <v>10.39896691723945</v>
       </c>
       <c r="D18">
-        <v>5.780962220575253</v>
+        <v>5.922006740127777</v>
       </c>
       <c r="F18">
-        <v>18.98315049280908</v>
+        <v>18.24730475294909</v>
       </c>
       <c r="G18">
-        <v>23.63382781661412</v>
+        <v>21.96826033121587</v>
       </c>
       <c r="I18">
-        <v>2.997954588271246</v>
+        <v>3.010688115589904</v>
       </c>
       <c r="J18">
-        <v>8.94904393352418</v>
+        <v>9.1550519528273</v>
       </c>
       <c r="K18">
-        <v>13.30679830021275</v>
+        <v>12.75811807785808</v>
+      </c>
+      <c r="L18">
+        <v>10.97324395031383</v>
       </c>
       <c r="M18">
-        <v>13.72451226549923</v>
-      </c>
-      <c r="P18">
-        <v>11.8190770873535</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>8.004211807449439</v>
+      </c>
+      <c r="O18">
+        <v>13.64033630322039</v>
+      </c>
+      <c r="R18">
+        <v>11.82122313339015</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.94610653228181</v>
+        <v>14.59098103067072</v>
       </c>
       <c r="C19">
-        <v>10.03174901960712</v>
+        <v>10.36669974903247</v>
       </c>
       <c r="D19">
-        <v>5.768612459350783</v>
+        <v>5.905692122704173</v>
       </c>
       <c r="F19">
-        <v>18.94189453906564</v>
+        <v>18.22177812514372</v>
       </c>
       <c r="G19">
-        <v>23.57812473255369</v>
+        <v>21.88463810594853</v>
       </c>
       <c r="I19">
-        <v>2.98666486389349</v>
+        <v>3.001947560467078</v>
       </c>
       <c r="J19">
-        <v>8.948141944670105</v>
+        <v>9.17329574967043</v>
       </c>
       <c r="K19">
-        <v>13.30715266441576</v>
+        <v>12.76596225909649</v>
+      </c>
+      <c r="L19">
+        <v>10.98516888589661</v>
       </c>
       <c r="M19">
-        <v>13.66937446962916</v>
-      </c>
-      <c r="P19">
-        <v>11.83285663861767</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>7.997307201249174</v>
+      </c>
+      <c r="O19">
+        <v>13.58923356539367</v>
+      </c>
+      <c r="R19">
+        <v>11.83286678881042</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.22645409356123</v>
+        <v>14.84207487317611</v>
       </c>
       <c r="C20">
-        <v>10.21390001858513</v>
+        <v>10.54730785687437</v>
       </c>
       <c r="D20">
-        <v>5.834726766722709</v>
+        <v>5.991327462317964</v>
       </c>
       <c r="F20">
-        <v>19.07186776967335</v>
+        <v>18.27452044860519</v>
       </c>
       <c r="G20">
-        <v>23.72998289288784</v>
+        <v>22.19880796342501</v>
       </c>
       <c r="I20">
-        <v>3.045417595472589</v>
+        <v>3.051830838847946</v>
       </c>
       <c r="J20">
-        <v>8.93551400017896</v>
+        <v>9.059039990709437</v>
       </c>
       <c r="K20">
-        <v>13.26789673744442</v>
+        <v>12.69305553742108</v>
+      </c>
+      <c r="L20">
+        <v>10.90575366145756</v>
       </c>
       <c r="M20">
-        <v>13.91079302807633</v>
-      </c>
-      <c r="P20">
-        <v>11.77238009077174</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>7.996621183456147</v>
+      </c>
+      <c r="O20">
+        <v>13.81032902703612</v>
+      </c>
+      <c r="R20">
+        <v>11.78389735318761</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.14288603981151</v>
+        <v>15.62230539617277</v>
       </c>
       <c r="C21">
-        <v>10.79516125447222</v>
+        <v>11.0244108787414</v>
       </c>
       <c r="D21">
-        <v>6.047800361015645</v>
+        <v>6.312054686485085</v>
       </c>
       <c r="F21">
-        <v>19.54147253003814</v>
+        <v>18.27093539349745</v>
       </c>
       <c r="G21">
-        <v>24.29908315594326</v>
+        <v>24.19326868887878</v>
       </c>
       <c r="I21">
-        <v>3.237407937489999</v>
+        <v>3.207733766300433</v>
       </c>
       <c r="J21">
-        <v>8.905792700970883</v>
+        <v>8.31825336834782</v>
       </c>
       <c r="K21">
-        <v>13.15910440180245</v>
+        <v>12.37701997162196</v>
+      </c>
+      <c r="L21">
+        <v>10.59910204929981</v>
       </c>
       <c r="M21">
-        <v>14.69558394493822</v>
-      </c>
-      <c r="P21">
-        <v>11.57108953513525</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>7.944673240156855</v>
+      </c>
+      <c r="O21">
+        <v>14.46909652928472</v>
+      </c>
+      <c r="R21">
+        <v>11.63551025613736</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.73096660725151</v>
+        <v>16.12060332927595</v>
       </c>
       <c r="C22">
-        <v>11.14207739386078</v>
+        <v>11.29733527541652</v>
       </c>
       <c r="D22">
-        <v>6.177211766498916</v>
+        <v>6.514850037855497</v>
       </c>
       <c r="F22">
-        <v>19.88852408765518</v>
+        <v>18.28538643199159</v>
       </c>
       <c r="G22">
-        <v>24.74298290789887</v>
+        <v>25.67162150404721</v>
       </c>
       <c r="I22">
-        <v>3.35764473998475</v>
+        <v>3.303396284311323</v>
       </c>
       <c r="J22">
-        <v>8.901267785010432</v>
+        <v>7.880551127483066</v>
       </c>
       <c r="K22">
-        <v>13.11744319810767</v>
+        <v>12.18264381470575</v>
+      </c>
+      <c r="L22">
+        <v>10.41378705648785</v>
       </c>
       <c r="M22">
-        <v>15.19025157747901</v>
-      </c>
-      <c r="P22">
-        <v>11.44015306211565</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>7.931483612889499</v>
+      </c>
+      <c r="O22">
+        <v>14.87883547068818</v>
+      </c>
+      <c r="R22">
+        <v>11.54332997806635</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.4356685031076</v>
+        <v>15.88054607396535</v>
       </c>
       <c r="C23">
-        <v>10.93745278550814</v>
+        <v>11.15129126192178</v>
       </c>
       <c r="D23">
-        <v>6.102743721990573</v>
+        <v>6.392537012778952</v>
       </c>
       <c r="F23">
-        <v>19.7326156738757</v>
+        <v>18.34838481492545</v>
       </c>
       <c r="G23">
-        <v>24.5580652732756</v>
+        <v>24.75686434501699</v>
       </c>
       <c r="I23">
-        <v>3.290294006755627</v>
+        <v>3.248762240148124</v>
       </c>
       <c r="J23">
-        <v>8.912607192411484</v>
+        <v>8.177042439554615</v>
       </c>
       <c r="K23">
-        <v>13.16020551730588</v>
+        <v>12.32233414706625</v>
+      </c>
+      <c r="L23">
+        <v>10.5340788348865</v>
       </c>
       <c r="M23">
-        <v>14.93079531422485</v>
-      </c>
-      <c r="P23">
-        <v>11.50888453376665</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>7.971504821508195</v>
+      </c>
+      <c r="O23">
+        <v>14.67617104429443</v>
+      </c>
+      <c r="R23">
+        <v>11.58709722512694</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.23725641816484</v>
+        <v>14.85378365259028</v>
       </c>
       <c r="C24">
-        <v>10.17068496113015</v>
+        <v>10.50401397629007</v>
       </c>
       <c r="D24">
-        <v>5.822043400599631</v>
+        <v>5.977445536275101</v>
       </c>
       <c r="F24">
-        <v>19.11199860148634</v>
+        <v>18.31766953665404</v>
       </c>
       <c r="G24">
-        <v>23.80555242056642</v>
+        <v>22.26166747611872</v>
       </c>
       <c r="I24">
-        <v>3.036204215417563</v>
+        <v>3.040882879139477</v>
       </c>
       <c r="J24">
-        <v>8.950556640269864</v>
+        <v>9.079108450965757</v>
       </c>
       <c r="K24">
-        <v>13.30225409925377</v>
+        <v>12.72620528991771</v>
+      </c>
+      <c r="L24">
+        <v>10.92992687659218</v>
       </c>
       <c r="M24">
-        <v>13.90189597777534</v>
-      </c>
-      <c r="P24">
-        <v>11.77448201742388</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>8.022271992194753</v>
+      </c>
+      <c r="O24">
+        <v>13.80253879204218</v>
+      </c>
+      <c r="R24">
+        <v>11.78410719968745</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.82712810146395</v>
+        <v>13.54614491928548</v>
       </c>
       <c r="C25">
-        <v>9.290402248089084</v>
+        <v>9.526057372843105</v>
       </c>
       <c r="D25">
-        <v>5.50287737296695</v>
+        <v>5.605715920272914</v>
       </c>
       <c r="F25">
-        <v>18.48357916883404</v>
+        <v>17.85241429972422</v>
       </c>
       <c r="G25">
-        <v>23.0672472221424</v>
+        <v>21.57809869874086</v>
       </c>
       <c r="I25">
-        <v>2.753766883713389</v>
+        <v>2.796443181642982</v>
       </c>
       <c r="J25">
-        <v>9.012117486036022</v>
+        <v>9.199922821860646</v>
       </c>
       <c r="K25">
-        <v>13.48489046494248</v>
+        <v>12.98345900619165</v>
+      </c>
+      <c r="L25">
+        <v>11.24857177952218</v>
       </c>
       <c r="M25">
-        <v>12.7019034262582</v>
-      </c>
-      <c r="P25">
-        <v>12.06880527020859</v>
-      </c>
-      <c r="Q25">
+        <v>7.97548685298873</v>
+      </c>
+      <c r="O25">
+        <v>12.6403408123583</v>
+      </c>
+      <c r="R25">
+        <v>12.03467888126423</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
